--- a/data_for_db/electorator_data_many_2.xlsx
+++ b/data_for_db/electorator_data_many_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tom\python\electorator\data_for_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE767851-E7FC-43F4-B965-8BEB15EF6CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BA59C4-538D-47FB-9F74-7D38D33A43EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CED9FC26-9461-43CF-A83C-FF0002950223}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{CED9FC26-9461-43CF-A83C-FF0002950223}"/>
   </bookViews>
   <sheets>
     <sheet name="tik" sheetId="7" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="211">
   <si>
     <t xml:space="preserve">ТИК района Раменки  </t>
   </si>
@@ -666,6 +666,12 @@
   </si>
   <si>
     <t>12:10:06</t>
+  </si>
+  <si>
+    <t>11:58:07</t>
+  </si>
+  <si>
+    <t>11:58:08</t>
   </si>
 </sst>
 </file>
@@ -1032,7 +1038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{214687B8-C633-4AAE-931E-899A379D5548}">
   <dimension ref="A1:I129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -5813,7 +5819,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5826,7 +5832,7 @@
     <col min="7" max="7" width="14.54296875" customWidth="1"/>
     <col min="8" max="8" width="10.1796875" customWidth="1"/>
     <col min="9" max="9" width="11.54296875" customWidth="1"/>
-    <col min="10" max="10" width="25.1796875" customWidth="1"/>
+    <col min="10" max="10" width="21.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
@@ -5998,10 +6004,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48112E11-0ED7-410D-9774-E50117BE0ED2}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6057,7 +6063,7 @@
         <v>152</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -6080,18 +6086,18 @@
         <v>153</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
         <v>89</v>
       </c>
       <c r="C4">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -6100,33 +6106,125 @@
         <v>0</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
         <v>89</v>
       </c>
       <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6">
+        <v>56</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7">
         <v>67</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8">
         <v>1</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
+      <c r="B8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8">
+        <v>67</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9">
+        <v>67</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/data_for_db/electorator_data_many_2.xlsx
+++ b/data_for_db/electorator_data_many_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tom\python\electorator\data_for_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BA59C4-538D-47FB-9F74-7D38D33A43EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDB1270-200D-4456-8A7B-56D00E10DBA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{CED9FC26-9461-43CF-A83C-FF0002950223}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{CED9FC26-9461-43CF-A83C-FF0002950223}"/>
   </bookViews>
   <sheets>
     <sheet name="tik" sheetId="7" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="213">
   <si>
     <t xml:space="preserve">ТИК района Раменки  </t>
   </si>
@@ -672,6 +672,12 @@
   </si>
   <si>
     <t>11:58:08</t>
+  </si>
+  <si>
+    <t>Петров Олег Степанович</t>
+  </si>
+  <si>
+    <t>Сидоров Сергей Семенович</t>
   </si>
 </sst>
 </file>
@@ -5480,8 +5486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B9BF735-69BB-44B8-9ADE-14E02C449AF1}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5489,7 +5495,6 @@
     <col min="1" max="1" width="26.90625" customWidth="1"/>
     <col min="2" max="2" width="17.54296875" customWidth="1"/>
     <col min="3" max="3" width="29.08984375" customWidth="1"/>
-    <col min="6" max="6" width="13.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
@@ -5538,7 +5543,7 @@
         <v>66</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>644</v>
       </c>
       <c r="E2" t="s">
         <v>67</v>
@@ -5573,7 +5578,7 @@
         <v>66</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="E3" t="s">
         <v>67</v>
@@ -5608,7 +5613,7 @@
         <v>66</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="E4" t="s">
         <v>67</v>
@@ -5643,7 +5648,7 @@
         <v>66</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>612</v>
       </c>
       <c r="E5" t="s">
         <v>67</v>
@@ -5678,7 +5683,7 @@
         <v>66</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>618</v>
       </c>
       <c r="E6" t="s">
         <v>67</v>
@@ -5713,7 +5718,7 @@
         <v>66</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>643</v>
       </c>
       <c r="E7" t="s">
         <v>67</v>
@@ -5748,7 +5753,7 @@
         <v>66</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>702</v>
       </c>
       <c r="E8" t="s">
         <v>67</v>
@@ -5783,7 +5788,7 @@
         <v>66</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>704</v>
       </c>
       <c r="E9" t="s">
         <v>67</v>
@@ -6006,8 +6011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48112E11-0ED7-410D-9774-E50117BE0ED2}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6236,10 +6241,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9F9E3C-CBB1-4805-91C0-6970A2BECB16}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6257,34 +6262,66 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -6743,10 +6780,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7695B45-B96E-4D7A-8E10-C75CDACAFE0A}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A1:XFD1048576"/>
+      <selection activeCell="A12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7071,6 +7108,76 @@
         <v>81</v>
       </c>
     </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>211</v>
+      </c>
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" t="s">
+        <v>72</v>
+      </c>
+      <c r="J12" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>212</v>
+      </c>
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" t="s">
+        <v>72</v>
+      </c>
+      <c r="J13" t="s">
+        <v>82</v>
+      </c>
+      <c r="K13" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_for_db/electorator_data_many_2.xlsx
+++ b/data_for_db/electorator_data_many_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tom\python\electorator\data_for_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDB1270-200D-4456-8A7B-56D00E10DBA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB63897-F672-44CA-98A3-BC9D03EB60A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{CED9FC26-9461-43CF-A83C-FF0002950223}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{CED9FC26-9461-43CF-A83C-FF0002950223}"/>
   </bookViews>
   <sheets>
     <sheet name="tik" sheetId="7" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="214">
   <si>
     <t xml:space="preserve">ТИК района Раменки  </t>
   </si>
@@ -485,12 +485,6 @@
     <t>num_uik</t>
   </si>
   <si>
-    <t>11:59:26</t>
-  </si>
-  <si>
-    <t>11:59:27</t>
-  </si>
-  <si>
     <t>id_protocol1_id</t>
   </si>
   <si>
@@ -656,9 +650,6 @@
     <t>00:00:00</t>
   </si>
   <si>
-    <t>11:59:28</t>
-  </si>
-  <si>
     <t>11:59:29</t>
   </si>
   <si>
@@ -678,6 +669,18 @@
   </si>
   <si>
     <t>Сидоров Сергей Семенович</t>
+  </si>
+  <si>
+    <t>ТИК Троицкого административного округа</t>
+  </si>
+  <si>
+    <t>ТИК Хорошевского района</t>
+  </si>
+  <si>
+    <t>ТИК Южнопортового района</t>
+  </si>
+  <si>
+    <t>ТИК ТЕСТ района</t>
   </si>
 </sst>
 </file>
@@ -721,13 +724,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1044,8 +1044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{214687B8-C633-4AAE-931E-899A379D5548}">
   <dimension ref="A1:I129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="I125" sqref="I125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I2" t="s">
         <v>103</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I3" t="s">
         <v>101</v>
@@ -1170,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I4" t="s">
         <v>104</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I5" t="s">
         <v>105</v>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I6" t="s">
         <v>106</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I7" t="s">
         <v>107</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I8" t="s">
         <v>108</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I9" t="s">
         <v>109</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I10" t="s">
         <v>110</v>
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I11" t="s">
         <v>111</v>
@@ -1402,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I12" t="s">
         <v>112</v>
@@ -1431,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I13" t="s">
         <v>113</v>
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I14" t="s">
         <v>114</v>
@@ -1489,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I15" t="s">
         <v>115</v>
@@ -1518,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I16" t="s">
         <v>116</v>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I17" t="s">
         <v>117</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I18" t="s">
         <v>118</v>
@@ -1605,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I19" t="s">
         <v>119</v>
@@ -1634,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I20" t="s">
         <v>120</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I21" t="s">
         <v>121</v>
@@ -1692,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I22" t="s">
         <v>122</v>
@@ -1721,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I23" t="s">
         <v>123</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I24" t="s">
         <v>124</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I25" t="s">
         <v>125</v>
@@ -1808,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I26" t="s">
         <v>126</v>
@@ -1837,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I27" t="s">
         <v>127</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I28" t="s">
         <v>128</v>
@@ -1895,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I29" t="s">
         <v>129</v>
@@ -1924,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I30" t="s">
         <v>130</v>
@@ -1953,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I31" t="s">
         <v>131</v>
@@ -1982,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I32" t="s">
         <v>132</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I33" t="s">
         <v>133</v>
@@ -2040,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I34" t="s">
         <v>134</v>
@@ -2069,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I35" t="s">
         <v>135</v>
@@ -2098,10 +2098,10 @@
         <v>0</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I36" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
@@ -2127,10 +2127,10 @@
         <v>0</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I37" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
@@ -2156,10 +2156,10 @@
         <v>0</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I38" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
@@ -2185,10 +2185,10 @@
         <v>0</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I39" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
@@ -2214,10 +2214,10 @@
         <v>0</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I40" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
@@ -2243,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I41" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
@@ -2272,10 +2272,10 @@
         <v>0</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I42" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
@@ -2301,10 +2301,10 @@
         <v>0</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
@@ -2330,10 +2330,10 @@
         <v>0</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I44" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
@@ -2359,10 +2359,10 @@
         <v>0</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I45" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
@@ -2388,10 +2388,10 @@
         <v>0</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I46" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
@@ -2417,10 +2417,10 @@
         <v>0</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I47" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
@@ -2446,10 +2446,10 @@
         <v>0</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I48" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
@@ -2475,10 +2475,10 @@
         <v>0</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I49" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
@@ -2504,10 +2504,10 @@
         <v>0</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I50" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
@@ -2533,10 +2533,10 @@
         <v>0</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I51" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
@@ -2562,10 +2562,10 @@
         <v>0</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I52" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
@@ -2591,10 +2591,10 @@
         <v>0</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I53" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
@@ -2620,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I54" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
@@ -2649,10 +2649,10 @@
         <v>0</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I55" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
@@ -2678,10 +2678,10 @@
         <v>0</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I56" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
@@ -2707,10 +2707,10 @@
         <v>0</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I57" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
@@ -2736,10 +2736,10 @@
         <v>0</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I58" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
@@ -2765,10 +2765,10 @@
         <v>0</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I59" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
@@ -2794,10 +2794,10 @@
         <v>0</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I60" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
@@ -2823,10 +2823,10 @@
         <v>0</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I61" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
@@ -2852,10 +2852,10 @@
         <v>0</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I62" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
@@ -2881,10 +2881,10 @@
         <v>0</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I63" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
@@ -2910,10 +2910,10 @@
         <v>0</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I64" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
@@ -2939,10 +2939,10 @@
         <v>0</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I65" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
@@ -2968,10 +2968,10 @@
         <v>0</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I66" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I67" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
@@ -3026,10 +3026,10 @@
         <v>0</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I68" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
@@ -3055,10 +3055,10 @@
         <v>0</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I69" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
@@ -3084,10 +3084,10 @@
         <v>0</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I70" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
@@ -3113,10 +3113,10 @@
         <v>0</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I71" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
@@ -3142,10 +3142,10 @@
         <v>0</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I72" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
@@ -3171,10 +3171,10 @@
         <v>0</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I73" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
@@ -3200,10 +3200,10 @@
         <v>0</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I74" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
@@ -3229,10 +3229,10 @@
         <v>0</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I75" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
@@ -3258,10 +3258,10 @@
         <v>0</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I76" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
@@ -3287,10 +3287,10 @@
         <v>0</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I77" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I78" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
@@ -3345,10 +3345,10 @@
         <v>0</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I79" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
@@ -3374,10 +3374,10 @@
         <v>0</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I80" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
@@ -3403,10 +3403,10 @@
         <v>0</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I81" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
@@ -3432,10 +3432,10 @@
         <v>0</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I82" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
@@ -3461,10 +3461,10 @@
         <v>0</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I83" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
@@ -3490,10 +3490,10 @@
         <v>0</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I84" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
@@ -3519,10 +3519,10 @@
         <v>0</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I85" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I86" t="s">
         <v>0</v>
@@ -3577,7 +3577,7 @@
         <v>0</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I87" t="s">
         <v>1</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I88" t="s">
         <v>2</v>
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I89" t="s">
         <v>3</v>
@@ -3664,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I90" t="s">
         <v>4</v>
@@ -3693,7 +3693,7 @@
         <v>0</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I91" t="s">
         <v>5</v>
@@ -3722,7 +3722,7 @@
         <v>0</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I92" t="s">
         <v>6</v>
@@ -3751,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I93" t="s">
         <v>7</v>
@@ -3780,7 +3780,7 @@
         <v>0</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I94" t="s">
         <v>8</v>
@@ -3809,7 +3809,7 @@
         <v>0</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I95" t="s">
         <v>9</v>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I96" t="s">
         <v>10</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I97" t="s">
         <v>11</v>
@@ -3896,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I98" t="s">
         <v>12</v>
@@ -3925,7 +3925,7 @@
         <v>0</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I99" t="s">
         <v>13</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I100" t="s">
         <v>14</v>
@@ -3983,7 +3983,7 @@
         <v>0</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I101" t="s">
         <v>15</v>
@@ -4012,7 +4012,7 @@
         <v>0</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I102" t="s">
         <v>16</v>
@@ -4041,7 +4041,7 @@
         <v>0</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I103" t="s">
         <v>17</v>
@@ -4070,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I104" t="s">
         <v>18</v>
@@ -4099,7 +4099,7 @@
         <v>0</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I105" t="s">
         <v>19</v>
@@ -4128,7 +4128,7 @@
         <v>0</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I106" t="s">
         <v>20</v>
@@ -4157,7 +4157,7 @@
         <v>0</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I107" t="s">
         <v>21</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I108" t="s">
         <v>22</v>
@@ -4215,7 +4215,7 @@
         <v>0</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I109" t="s">
         <v>23</v>
@@ -4244,7 +4244,7 @@
         <v>0</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I110" t="s">
         <v>24</v>
@@ -4273,7 +4273,7 @@
         <v>0</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I111" t="s">
         <v>25</v>
@@ -4302,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I112" t="s">
         <v>26</v>
@@ -4331,7 +4331,7 @@
         <v>0</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I113" t="s">
         <v>102</v>
@@ -4360,7 +4360,7 @@
         <v>0</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I114" t="s">
         <v>27</v>
@@ -4389,7 +4389,7 @@
         <v>0</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I115" t="s">
         <v>28</v>
@@ -4418,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I116" t="s">
         <v>29</v>
@@ -4447,7 +4447,7 @@
         <v>0</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I117" t="s">
         <v>30</v>
@@ -4476,7 +4476,7 @@
         <v>0</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I118" t="s">
         <v>31</v>
@@ -4505,7 +4505,7 @@
         <v>0</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I119" t="s">
         <v>32</v>
@@ -4534,7 +4534,7 @@
         <v>0</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I120" t="s">
         <v>33</v>
@@ -4563,7 +4563,7 @@
         <v>0</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I121" t="s">
         <v>34</v>
@@ -4592,7 +4592,7 @@
         <v>0</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I122" t="s">
         <v>35</v>
@@ -4621,7 +4621,7 @@
         <v>0</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I123" t="s">
         <v>36</v>
@@ -4650,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I124" t="s">
         <v>37</v>
@@ -4679,7 +4679,7 @@
         <v>0</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I125" t="s">
         <v>38</v>
@@ -4708,10 +4708,10 @@
         <v>0</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I126" t="s">
-        <v>39</v>
+        <v>210</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.35">
@@ -4737,10 +4737,10 @@
         <v>0</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I127" t="s">
-        <v>40</v>
+        <v>211</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.35">
@@ -4766,10 +4766,10 @@
         <v>0</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I128" t="s">
-        <v>41</v>
+        <v>212</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.35">
@@ -4795,7 +4795,7 @@
         <v>0</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I129" t="s">
         <v>42</v>
@@ -5005,252 +5005,252 @@
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
@@ -5486,7 +5486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B9BF735-69BB-44B8-9ADE-14E02C449AF1}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -5821,10 +5821,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D04D890-9948-4CF6-939B-9E7E1C90F105}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5874,16 +5874,16 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="C2" t="s">
         <v>89</v>
       </c>
       <c r="D2">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -5898,106 +5898,10 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2001</v>
-      </c>
-      <c r="C3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3">
-        <v>67</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>2000</v>
-      </c>
-      <c r="C4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4">
-        <v>67</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>2001</v>
-      </c>
-      <c r="C5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5">
-        <v>67</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>101</v>
+        <v>203</v>
+      </c>
+      <c r="J2" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -6065,7 +5969,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -6088,7 +5992,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G3">
         <v>6</v>
@@ -6111,7 +6015,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G4">
         <v>7</v>
@@ -6134,7 +6038,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -6203,7 +6107,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G8">
         <v>7</v>
@@ -6226,7 +6130,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G9">
         <v>8</v>
@@ -6254,10 +6158,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -7110,7 +7014,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B12" t="s">
         <v>63</v>
@@ -7145,7 +7049,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B13" t="s">
         <v>64</v>

--- a/data_for_db/electorator_data_many_2.xlsx
+++ b/data_for_db/electorator_data_many_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tom\python\electorator\data_for_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB63897-F672-44CA-98A3-BC9D03EB60A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD4C80E-9791-4A76-A8B8-41E096180B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{CED9FC26-9461-43CF-A83C-FF0002950223}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CED9FC26-9461-43CF-A83C-FF0002950223}"/>
   </bookViews>
   <sheets>
     <sheet name="tik" sheetId="7" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="212">
   <si>
     <t xml:space="preserve">ТИК района Раменки  </t>
   </si>
@@ -647,16 +647,10 @@
     <t>ТИК района Проспект Вернадского</t>
   </si>
   <si>
-    <t>00:00:00</t>
-  </si>
-  <si>
     <t>11:59:29</t>
   </si>
   <si>
     <t>12:10:05</t>
-  </si>
-  <si>
-    <t>12:10:06</t>
   </si>
   <si>
     <t>11:58:07</t>
@@ -1044,8 +1038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{214687B8-C633-4AAE-931E-899A379D5548}">
   <dimension ref="A1:I129"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="I125" sqref="I125"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="I126" sqref="I126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1112,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I2" t="s">
         <v>103</v>
@@ -1141,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I3" t="s">
         <v>101</v>
@@ -1161,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1170,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I4" t="s">
         <v>104</v>
@@ -1190,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1199,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I5" t="s">
         <v>105</v>
@@ -1219,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1228,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I6" t="s">
         <v>106</v>
@@ -1248,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1257,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I7" t="s">
         <v>107</v>
@@ -1277,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1286,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I8" t="s">
         <v>108</v>
@@ -1306,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1315,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I9" t="s">
         <v>109</v>
@@ -1335,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1344,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I10" t="s">
         <v>110</v>
@@ -1364,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1373,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I11" t="s">
         <v>111</v>
@@ -1393,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1402,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I12" t="s">
         <v>112</v>
@@ -1422,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1431,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I13" t="s">
         <v>113</v>
@@ -1451,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1460,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I14" t="s">
         <v>114</v>
@@ -1480,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1489,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I15" t="s">
         <v>115</v>
@@ -1509,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1518,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I16" t="s">
         <v>116</v>
@@ -1538,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1547,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I17" t="s">
         <v>117</v>
@@ -1567,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1576,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I18" t="s">
         <v>118</v>
@@ -1596,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1605,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I19" t="s">
         <v>119</v>
@@ -1625,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1634,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I20" t="s">
         <v>120</v>
@@ -1654,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1663,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I21" t="s">
         <v>121</v>
@@ -1683,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1692,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I22" t="s">
         <v>122</v>
@@ -1712,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1721,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I23" t="s">
         <v>123</v>
@@ -1741,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1750,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I24" t="s">
         <v>124</v>
@@ -1770,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1779,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I25" t="s">
         <v>125</v>
@@ -1799,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1808,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I26" t="s">
         <v>126</v>
@@ -1828,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1837,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I27" t="s">
         <v>127</v>
@@ -1857,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1866,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I28" t="s">
         <v>128</v>
@@ -1886,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1895,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I29" t="s">
         <v>129</v>
@@ -1915,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1924,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I30" t="s">
         <v>130</v>
@@ -1944,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1953,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I31" t="s">
         <v>131</v>
@@ -1973,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1982,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I32" t="s">
         <v>132</v>
@@ -2002,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -2011,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I33" t="s">
         <v>133</v>
@@ -2031,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -2040,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I34" t="s">
         <v>134</v>
@@ -2060,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -2069,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I35" t="s">
         <v>135</v>
@@ -2089,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -2098,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I36" t="s">
         <v>152</v>
@@ -2118,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -2127,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I37" t="s">
         <v>153</v>
@@ -2147,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -2156,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I38" t="s">
         <v>154</v>
@@ -2176,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -2185,7 +2179,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I39" t="s">
         <v>155</v>
@@ -2205,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -2214,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I40" t="s">
         <v>156</v>
@@ -2234,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -2243,7 +2237,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I41" t="s">
         <v>157</v>
@@ -2263,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -2272,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I42" t="s">
         <v>158</v>
@@ -2292,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -2301,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I43" t="s">
         <v>159</v>
@@ -2321,7 +2315,7 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -2330,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I44" t="s">
         <v>160</v>
@@ -2350,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -2359,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I45" t="s">
         <v>161</v>
@@ -2379,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -2388,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I46" t="s">
         <v>162</v>
@@ -2408,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -2417,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I47" t="s">
         <v>163</v>
@@ -2437,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -2446,7 +2440,7 @@
         <v>0</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I48" t="s">
         <v>164</v>
@@ -2466,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -2475,7 +2469,7 @@
         <v>0</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I49" t="s">
         <v>165</v>
@@ -2495,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -2504,7 +2498,7 @@
         <v>0</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I50" t="s">
         <v>166</v>
@@ -2524,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -2533,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I51" t="s">
         <v>167</v>
@@ -2553,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -2562,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I52" t="s">
         <v>168</v>
@@ -2582,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -2591,7 +2585,7 @@
         <v>0</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I53" t="s">
         <v>169</v>
@@ -2611,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -2620,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I54" t="s">
         <v>170</v>
@@ -2640,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -2649,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I55" t="s">
         <v>171</v>
@@ -2669,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -2678,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I56" t="s">
         <v>172</v>
@@ -2698,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -2707,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I57" t="s">
         <v>173</v>
@@ -2727,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -2736,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I58" t="s">
         <v>174</v>
@@ -2756,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -2765,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I59" t="s">
         <v>175</v>
@@ -2785,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -2794,7 +2788,7 @@
         <v>0</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I60" t="s">
         <v>176</v>
@@ -2814,7 +2808,7 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -2823,7 +2817,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I61" t="s">
         <v>177</v>
@@ -2843,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -2852,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I62" t="s">
         <v>178</v>
@@ -2872,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -2881,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I63" t="s">
         <v>179</v>
@@ -2901,7 +2895,7 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -2910,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I64" t="s">
         <v>180</v>
@@ -2930,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -2939,7 +2933,7 @@
         <v>0</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I65" t="s">
         <v>181</v>
@@ -2959,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -2968,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I66" t="s">
         <v>182</v>
@@ -2988,7 +2982,7 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -2997,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I67" t="s">
         <v>183</v>
@@ -3017,7 +3011,7 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -3026,7 +3020,7 @@
         <v>0</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I68" t="s">
         <v>184</v>
@@ -3046,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -3055,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I69" t="s">
         <v>185</v>
@@ -3075,7 +3069,7 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -3084,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I70" t="s">
         <v>186</v>
@@ -3104,7 +3098,7 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -3113,7 +3107,7 @@
         <v>0</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I71" t="s">
         <v>187</v>
@@ -3133,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -3142,7 +3136,7 @@
         <v>0</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I72" t="s">
         <v>188</v>
@@ -3162,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -3171,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I73" t="s">
         <v>189</v>
@@ -3191,7 +3185,7 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -3200,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I74" t="s">
         <v>190</v>
@@ -3220,7 +3214,7 @@
         <v>0</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -3229,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I75" t="s">
         <v>191</v>
@@ -3249,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -3258,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I76" t="s">
         <v>192</v>
@@ -3278,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -3287,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I77" t="s">
         <v>193</v>
@@ -3307,7 +3301,7 @@
         <v>0</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -3316,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I78" t="s">
         <v>194</v>
@@ -3336,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -3345,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I79" t="s">
         <v>195</v>
@@ -3365,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -3374,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I80" t="s">
         <v>196</v>
@@ -3394,7 +3388,7 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -3403,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I81" t="s">
         <v>197</v>
@@ -3423,7 +3417,7 @@
         <v>0</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -3432,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I82" t="s">
         <v>198</v>
@@ -3452,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -3461,7 +3455,7 @@
         <v>0</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I83" t="s">
         <v>199</v>
@@ -3481,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -3490,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I84" t="s">
         <v>200</v>
@@ -3510,7 +3504,7 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -3519,7 +3513,7 @@
         <v>0</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I85" t="s">
         <v>201</v>
@@ -3539,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -3548,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I86" t="s">
         <v>0</v>
@@ -3568,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -3577,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I87" t="s">
         <v>1</v>
@@ -3597,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -3606,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I88" t="s">
         <v>2</v>
@@ -3626,7 +3620,7 @@
         <v>0</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -3635,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I89" t="s">
         <v>3</v>
@@ -3655,7 +3649,7 @@
         <v>0</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -3664,7 +3658,7 @@
         <v>0</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I90" t="s">
         <v>4</v>
@@ -3684,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -3693,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I91" t="s">
         <v>5</v>
@@ -3713,7 +3707,7 @@
         <v>0</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -3722,7 +3716,7 @@
         <v>0</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I92" t="s">
         <v>6</v>
@@ -3742,7 +3736,7 @@
         <v>0</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -3751,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I93" t="s">
         <v>7</v>
@@ -3771,7 +3765,7 @@
         <v>0</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -3780,7 +3774,7 @@
         <v>0</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I94" t="s">
         <v>8</v>
@@ -3800,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -3809,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I95" t="s">
         <v>9</v>
@@ -3829,7 +3823,7 @@
         <v>0</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -3838,7 +3832,7 @@
         <v>0</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I96" t="s">
         <v>10</v>
@@ -3858,7 +3852,7 @@
         <v>0</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -3867,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I97" t="s">
         <v>11</v>
@@ -3887,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -3896,7 +3890,7 @@
         <v>0</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I98" t="s">
         <v>12</v>
@@ -3916,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -3925,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I99" t="s">
         <v>13</v>
@@ -3945,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -3954,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I100" t="s">
         <v>14</v>
@@ -3974,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -3983,7 +3977,7 @@
         <v>0</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I101" t="s">
         <v>15</v>
@@ -4003,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -4012,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I102" t="s">
         <v>16</v>
@@ -4032,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -4041,7 +4035,7 @@
         <v>0</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I103" t="s">
         <v>17</v>
@@ -4061,7 +4055,7 @@
         <v>0</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -4070,7 +4064,7 @@
         <v>0</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I104" t="s">
         <v>18</v>
@@ -4090,7 +4084,7 @@
         <v>0</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -4099,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I105" t="s">
         <v>19</v>
@@ -4119,7 +4113,7 @@
         <v>0</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -4128,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I106" t="s">
         <v>20</v>
@@ -4148,7 +4142,7 @@
         <v>0</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -4157,7 +4151,7 @@
         <v>0</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I107" t="s">
         <v>21</v>
@@ -4177,7 +4171,7 @@
         <v>0</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -4186,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I108" t="s">
         <v>22</v>
@@ -4206,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -4215,7 +4209,7 @@
         <v>0</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I109" t="s">
         <v>23</v>
@@ -4235,7 +4229,7 @@
         <v>0</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -4244,7 +4238,7 @@
         <v>0</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I110" t="s">
         <v>24</v>
@@ -4264,7 +4258,7 @@
         <v>0</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -4273,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I111" t="s">
         <v>25</v>
@@ -4293,7 +4287,7 @@
         <v>0</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -4302,7 +4296,7 @@
         <v>0</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I112" t="s">
         <v>26</v>
@@ -4322,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -4331,7 +4325,7 @@
         <v>0</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I113" t="s">
         <v>102</v>
@@ -4351,7 +4345,7 @@
         <v>0</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -4360,7 +4354,7 @@
         <v>0</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I114" t="s">
         <v>27</v>
@@ -4380,7 +4374,7 @@
         <v>0</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -4389,7 +4383,7 @@
         <v>0</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I115" t="s">
         <v>28</v>
@@ -4409,7 +4403,7 @@
         <v>0</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -4418,7 +4412,7 @@
         <v>0</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I116" t="s">
         <v>29</v>
@@ -4438,7 +4432,7 @@
         <v>0</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -4447,7 +4441,7 @@
         <v>0</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I117" t="s">
         <v>30</v>
@@ -4467,7 +4461,7 @@
         <v>0</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -4476,7 +4470,7 @@
         <v>0</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I118" t="s">
         <v>31</v>
@@ -4496,7 +4490,7 @@
         <v>0</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -4505,7 +4499,7 @@
         <v>0</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I119" t="s">
         <v>32</v>
@@ -4525,7 +4519,7 @@
         <v>0</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -4534,7 +4528,7 @@
         <v>0</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I120" t="s">
         <v>33</v>
@@ -4554,7 +4548,7 @@
         <v>0</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -4563,7 +4557,7 @@
         <v>0</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I121" t="s">
         <v>34</v>
@@ -4583,7 +4577,7 @@
         <v>0</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -4592,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I122" t="s">
         <v>35</v>
@@ -4612,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -4621,7 +4615,7 @@
         <v>0</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I123" t="s">
         <v>36</v>
@@ -4641,7 +4635,7 @@
         <v>0</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -4650,7 +4644,7 @@
         <v>0</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I124" t="s">
         <v>37</v>
@@ -4670,7 +4664,7 @@
         <v>0</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F125">
         <v>0</v>
@@ -4679,7 +4673,7 @@
         <v>0</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I125" t="s">
         <v>38</v>
@@ -4699,7 +4693,7 @@
         <v>0</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F126">
         <v>0</v>
@@ -4708,10 +4702,10 @@
         <v>0</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I126" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.35">
@@ -4728,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -4737,10 +4731,10 @@
         <v>0</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I127" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.35">
@@ -4757,7 +4751,7 @@
         <v>0</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -4766,10 +4760,10 @@
         <v>0</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I128" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.35">
@@ -4786,7 +4780,7 @@
         <v>0</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -4795,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I129" t="s">
         <v>42</v>
@@ -5823,7 +5817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D04D890-9948-4CF6-939B-9E7E1C90F105}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -5874,7 +5868,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>2001</v>
@@ -5898,10 +5892,10 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -6107,7 +6101,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G8">
         <v>7</v>
@@ -6130,7 +6124,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G9">
         <v>8</v>
@@ -7014,7 +7008,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B12" t="s">
         <v>63</v>
@@ -7049,7 +7043,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B13" t="s">
         <v>64</v>

--- a/data_for_db/electorator_data_many_2.xlsx
+++ b/data_for_db/electorator_data_many_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tom\python\electorator\data_for_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD4C80E-9791-4A76-A8B8-41E096180B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DF21D4-5832-40EA-B413-79A2D516C8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CED9FC26-9461-43CF-A83C-FF0002950223}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{CED9FC26-9461-43CF-A83C-FF0002950223}"/>
   </bookViews>
   <sheets>
     <sheet name="tik" sheetId="7" r:id="rId1"/>
@@ -19,8 +19,8 @@
     <sheet name="uik" sheetId="8" r:id="rId4"/>
     <sheet name="protocol1" sheetId="3" r:id="rId5"/>
     <sheet name="uikprotocol1" sheetId="10" r:id="rId6"/>
-    <sheet name="protocol2" sheetId="4" r:id="rId7"/>
-    <sheet name="cand_2" sheetId="11" r:id="rId8"/>
+    <sheet name="protocol2_old" sheetId="4" r:id="rId7"/>
+    <sheet name="cand_old" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="253">
   <si>
     <t xml:space="preserve">ТИК района Раменки  </t>
   </si>
@@ -675,6 +675,129 @@
   </si>
   <si>
     <t>ТИК ТЕСТ района</t>
+  </si>
+  <si>
+    <t>ТИК района Раменки</t>
+  </si>
+  <si>
+    <t>ТИК района Ростокино</t>
+  </si>
+  <si>
+    <t>ТИК района Савелки</t>
+  </si>
+  <si>
+    <t>ТИК района Свиблово</t>
+  </si>
+  <si>
+    <t>ТИК района Северное Бутово</t>
+  </si>
+  <si>
+    <t>ТИК района Северное Измайлово</t>
+  </si>
+  <si>
+    <t>ТИК района Северное Медведково</t>
+  </si>
+  <si>
+    <t>ТИК района Северное Тушино</t>
+  </si>
+  <si>
+    <t>ТИК района Северный</t>
+  </si>
+  <si>
+    <t>ТИК района Силино</t>
+  </si>
+  <si>
+    <t>ТИК района Сокол</t>
+  </si>
+  <si>
+    <t>ТИК района Соколиная гора</t>
+  </si>
+  <si>
+    <t>ТИК района Сокольники</t>
+  </si>
+  <si>
+    <t>ТИК района Солнцево</t>
+  </si>
+  <si>
+    <t>ТИК района Старое Крюково</t>
+  </si>
+  <si>
+    <t>ТИК района Строгино</t>
+  </si>
+  <si>
+    <t>ТИК района Текстильщики</t>
+  </si>
+  <si>
+    <t>ТИК района Теплый Стан</t>
+  </si>
+  <si>
+    <t>ТИК района Тропарево-Никулино</t>
+  </si>
+  <si>
+    <t>ТИК района Филевский парк</t>
+  </si>
+  <si>
+    <t>ТИК района Фили-Давыдково</t>
+  </si>
+  <si>
+    <t>ТИК района Хамовники</t>
+  </si>
+  <si>
+    <t>ТИК района Ховрино</t>
+  </si>
+  <si>
+    <t>ТИК района Хорошево-Мневники</t>
+  </si>
+  <si>
+    <t>ТИК района Царицыно</t>
+  </si>
+  <si>
+    <t>ТИК района Черемушки</t>
+  </si>
+  <si>
+    <t>ТИК района Чертаново Северное</t>
+  </si>
+  <si>
+    <t>ТИК района Чертаново Южное</t>
+  </si>
+  <si>
+    <t>ТИК района Щукино</t>
+  </si>
+  <si>
+    <t>ТИК района Южное Бутово</t>
+  </si>
+  <si>
+    <t>ТИК района Южное Медведково</t>
+  </si>
+  <si>
+    <t>ТИК района Южное Тушино</t>
+  </si>
+  <si>
+    <t>ТИК района Якиманка</t>
+  </si>
+  <si>
+    <t>ТИК района Ясенево</t>
+  </si>
+  <si>
+    <t>ТИК Рязанского района</t>
+  </si>
+  <si>
+    <t>ТИК Савеловского района</t>
+  </si>
+  <si>
+    <t>ТИК Таганского района</t>
+  </si>
+  <si>
+    <t>ТИК Тверского района</t>
+  </si>
+  <si>
+    <t>ТИК Тимирязевского района</t>
+  </si>
+  <si>
+    <t>слева без пробелов в конеце</t>
+  </si>
+  <si>
+    <t>справа старая версия</t>
   </si>
 </sst>
 </file>
@@ -1038,8 +1161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{214687B8-C633-4AAE-931E-899A379D5548}">
   <dimension ref="A1:I129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="I126" sqref="I126"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3545,7 +3668,7 @@
         <v>203</v>
       </c>
       <c r="I86" t="s">
-        <v>0</v>
+        <v>212</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
@@ -3574,7 +3697,7 @@
         <v>203</v>
       </c>
       <c r="I87" t="s">
-        <v>1</v>
+        <v>213</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
@@ -3603,7 +3726,7 @@
         <v>203</v>
       </c>
       <c r="I88" t="s">
-        <v>2</v>
+        <v>214</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
@@ -3632,7 +3755,7 @@
         <v>203</v>
       </c>
       <c r="I89" t="s">
-        <v>3</v>
+        <v>215</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
@@ -3661,7 +3784,7 @@
         <v>203</v>
       </c>
       <c r="I90" t="s">
-        <v>4</v>
+        <v>216</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
@@ -3690,7 +3813,7 @@
         <v>203</v>
       </c>
       <c r="I91" t="s">
-        <v>5</v>
+        <v>217</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.35">
@@ -3719,7 +3842,7 @@
         <v>203</v>
       </c>
       <c r="I92" t="s">
-        <v>6</v>
+        <v>218</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.35">
@@ -3748,7 +3871,7 @@
         <v>203</v>
       </c>
       <c r="I93" t="s">
-        <v>7</v>
+        <v>219</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.35">
@@ -3777,7 +3900,7 @@
         <v>203</v>
       </c>
       <c r="I94" t="s">
-        <v>8</v>
+        <v>220</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
@@ -3806,7 +3929,7 @@
         <v>203</v>
       </c>
       <c r="I95" t="s">
-        <v>9</v>
+        <v>221</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.35">
@@ -3835,7 +3958,7 @@
         <v>203</v>
       </c>
       <c r="I96" t="s">
-        <v>10</v>
+        <v>222</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.35">
@@ -3864,7 +3987,7 @@
         <v>203</v>
       </c>
       <c r="I97" t="s">
-        <v>11</v>
+        <v>223</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
@@ -3893,7 +4016,7 @@
         <v>203</v>
       </c>
       <c r="I98" t="s">
-        <v>12</v>
+        <v>224</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
@@ -3922,7 +4045,7 @@
         <v>203</v>
       </c>
       <c r="I99" t="s">
-        <v>13</v>
+        <v>225</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.35">
@@ -3951,7 +4074,7 @@
         <v>203</v>
       </c>
       <c r="I100" t="s">
-        <v>14</v>
+        <v>226</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.35">
@@ -3980,7 +4103,7 @@
         <v>203</v>
       </c>
       <c r="I101" t="s">
-        <v>15</v>
+        <v>227</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.35">
@@ -4009,7 +4132,7 @@
         <v>203</v>
       </c>
       <c r="I102" t="s">
-        <v>16</v>
+        <v>228</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.35">
@@ -4038,7 +4161,7 @@
         <v>203</v>
       </c>
       <c r="I103" t="s">
-        <v>17</v>
+        <v>229</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.35">
@@ -4067,7 +4190,7 @@
         <v>203</v>
       </c>
       <c r="I104" t="s">
-        <v>18</v>
+        <v>230</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.35">
@@ -4096,7 +4219,7 @@
         <v>203</v>
       </c>
       <c r="I105" t="s">
-        <v>19</v>
+        <v>231</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.35">
@@ -4125,7 +4248,7 @@
         <v>203</v>
       </c>
       <c r="I106" t="s">
-        <v>20</v>
+        <v>232</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.35">
@@ -4154,7 +4277,7 @@
         <v>203</v>
       </c>
       <c r="I107" t="s">
-        <v>21</v>
+        <v>233</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.35">
@@ -4183,7 +4306,7 @@
         <v>203</v>
       </c>
       <c r="I108" t="s">
-        <v>22</v>
+        <v>234</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.35">
@@ -4212,7 +4335,7 @@
         <v>203</v>
       </c>
       <c r="I109" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.35">
@@ -4241,7 +4364,7 @@
         <v>203</v>
       </c>
       <c r="I110" t="s">
-        <v>24</v>
+        <v>236</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.35">
@@ -4270,7 +4393,7 @@
         <v>203</v>
       </c>
       <c r="I111" t="s">
-        <v>25</v>
+        <v>237</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.35">
@@ -4299,7 +4422,7 @@
         <v>203</v>
       </c>
       <c r="I112" t="s">
-        <v>26</v>
+        <v>238</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.35">
@@ -4357,7 +4480,7 @@
         <v>203</v>
       </c>
       <c r="I114" t="s">
-        <v>27</v>
+        <v>239</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.35">
@@ -4386,7 +4509,7 @@
         <v>203</v>
       </c>
       <c r="I115" t="s">
-        <v>28</v>
+        <v>240</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.35">
@@ -4415,7 +4538,7 @@
         <v>203</v>
       </c>
       <c r="I116" t="s">
-        <v>29</v>
+        <v>241</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.35">
@@ -4444,7 +4567,7 @@
         <v>203</v>
       </c>
       <c r="I117" t="s">
-        <v>30</v>
+        <v>242</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.35">
@@ -4473,7 +4596,7 @@
         <v>203</v>
       </c>
       <c r="I118" t="s">
-        <v>31</v>
+        <v>243</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.35">
@@ -4502,7 +4625,7 @@
         <v>203</v>
       </c>
       <c r="I119" t="s">
-        <v>32</v>
+        <v>244</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.35">
@@ -4531,7 +4654,7 @@
         <v>203</v>
       </c>
       <c r="I120" t="s">
-        <v>33</v>
+        <v>245</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.35">
@@ -4560,7 +4683,7 @@
         <v>203</v>
       </c>
       <c r="I121" t="s">
-        <v>34</v>
+        <v>246</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.35">
@@ -4589,7 +4712,7 @@
         <v>203</v>
       </c>
       <c r="I122" t="s">
-        <v>35</v>
+        <v>247</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.35">
@@ -4618,7 +4741,7 @@
         <v>203</v>
       </c>
       <c r="I123" t="s">
-        <v>36</v>
+        <v>248</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.35">
@@ -4647,7 +4770,7 @@
         <v>203</v>
       </c>
       <c r="I124" t="s">
-        <v>37</v>
+        <v>249</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.35">
@@ -4676,7 +4799,7 @@
         <v>203</v>
       </c>
       <c r="I125" t="s">
-        <v>38</v>
+        <v>250</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.35">
@@ -4807,418 +4930,666 @@
   <dimension ref="A1:C129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A129"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" customWidth="1"/>
-    <col min="3" max="3" width="10.36328125" customWidth="1"/>
-    <col min="4" max="4" width="19.90625" customWidth="1"/>
-    <col min="6" max="6" width="13.7265625" customWidth="1"/>
-    <col min="7" max="7" width="10.6328125" customWidth="1"/>
-    <col min="8" max="8" width="12.08984375" customWidth="1"/>
-    <col min="9" max="9" width="28" customWidth="1"/>
+    <col min="1" max="1" width="25.6328125" customWidth="1"/>
+    <col min="2" max="2" width="28.1796875" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" customWidth="1"/>
+    <col min="5" max="5" width="10.36328125" customWidth="1"/>
+    <col min="6" max="6" width="19.90625" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" customWidth="1"/>
+    <col min="9" max="9" width="10.6328125" customWidth="1"/>
+    <col min="10" max="10" width="12.08984375" customWidth="1"/>
+    <col min="11" max="11" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C25" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C26" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C29" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C32" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C33" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C34" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C35" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C36" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C37" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C38" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C39" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C40" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C41" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C42" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C43" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C44" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C45" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C46" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C47" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C48" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C49" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C50" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C51" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C52" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C53" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C54" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C55" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C56" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C57" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C58" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C59" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C60" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C61" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C62" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C63" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C64" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C65" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C66" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C67" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C68" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C69" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C70" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C71" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C72" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C73" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C74" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C75" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C76" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C77" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C78" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C79" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
+        <v>196</v>
+      </c>
+      <c r="C80" t="s">
         <v>196</v>
       </c>
     </row>
@@ -5226,247 +5597,391 @@
       <c r="A81" t="s">
         <v>197</v>
       </c>
+      <c r="C81" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>198</v>
       </c>
+      <c r="C82" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>199</v>
       </c>
+      <c r="C83" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>200</v>
       </c>
+      <c r="C84" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>201</v>
       </c>
+      <c r="C85" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>0</v>
-      </c>
-      <c r="C86">
-        <v>86</v>
+        <v>212</v>
+      </c>
+      <c r="C86" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
+        <v>213</v>
+      </c>
+      <c r="C87" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
+        <v>214</v>
+      </c>
+      <c r="C88" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
+        <v>215</v>
+      </c>
+      <c r="C89" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
+        <v>216</v>
+      </c>
+      <c r="C90" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
+        <v>217</v>
+      </c>
+      <c r="C91" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
+        <v>218</v>
+      </c>
+      <c r="C92" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
+        <v>219</v>
+      </c>
+      <c r="C93" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
+        <v>220</v>
+      </c>
+      <c r="C94" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
+        <v>221</v>
+      </c>
+      <c r="C95" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
+        <v>222</v>
+      </c>
+      <c r="C96" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
+        <v>223</v>
+      </c>
+      <c r="C97" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
+        <v>224</v>
+      </c>
+      <c r="C98" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
+        <v>225</v>
+      </c>
+      <c r="C99" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
+        <v>226</v>
+      </c>
+      <c r="C100" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
+        <v>227</v>
+      </c>
+      <c r="C101" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
+        <v>228</v>
+      </c>
+      <c r="C102" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
+        <v>229</v>
+      </c>
+      <c r="C103" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
+        <v>230</v>
+      </c>
+      <c r="C104" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
+        <v>231</v>
+      </c>
+      <c r="C105" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
+        <v>232</v>
+      </c>
+      <c r="C106" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
+        <v>233</v>
+      </c>
+      <c r="C107" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
+        <v>234</v>
+      </c>
+      <c r="C108" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
+        <v>235</v>
+      </c>
+      <c r="C109" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
+        <v>236</v>
+      </c>
+      <c r="C110" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
+        <v>237</v>
+      </c>
+      <c r="C111" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
+        <v>238</v>
+      </c>
+      <c r="C112" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C113" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
+        <v>239</v>
+      </c>
+      <c r="C114" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
+        <v>240</v>
+      </c>
+      <c r="C115" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
+        <v>241</v>
+      </c>
+      <c r="C116" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
+        <v>242</v>
+      </c>
+      <c r="C117" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
+        <v>243</v>
+      </c>
+      <c r="C118" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
+        <v>244</v>
+      </c>
+      <c r="C119" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
+        <v>245</v>
+      </c>
+      <c r="C120" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
+        <v>246</v>
+      </c>
+      <c r="C121" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
+        <v>247</v>
+      </c>
+      <c r="C122" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
+        <v>248</v>
+      </c>
+      <c r="C123" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
+        <v>249</v>
+      </c>
+      <c r="C124" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
+        <v>250</v>
+      </c>
+      <c r="C125" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
+        <v>208</v>
+      </c>
+      <c r="C126" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
+        <v>209</v>
+      </c>
+      <c r="C127" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
+        <v>210</v>
+      </c>
+      <c r="C128" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
+        <v>42</v>
+      </c>
+      <c r="C129" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5480,7 +5995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B9BF735-69BB-44B8-9ADE-14E02C449AF1}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -5815,10 +6330,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D04D890-9948-4CF6-939B-9E7E1C90F105}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5868,7 +6383,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>2001</v>
@@ -5895,6 +6410,38 @@
         <v>202</v>
       </c>
       <c r="J2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2001</v>
+      </c>
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3">
+        <v>67</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J3" t="s">
         <v>211</v>
       </c>
     </row>
@@ -5910,7 +6457,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G5"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6232,7 +6779,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6681,7 +7228,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A1:XFD1048576"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/data_for_db/electorator_data_many_2.xlsx
+++ b/data_for_db/electorator_data_many_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tom\python\electorator\data_for_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B93EBF-DB30-43F7-B011-AD7FC11AFD84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505AC740-811B-40F5-AC55-1FE1EB285B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{CED9FC26-9461-43CF-A83C-FF0002950223}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CED9FC26-9461-43CF-A83C-FF0002950223}"/>
   </bookViews>
   <sheets>
     <sheet name="candidate" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="510">
   <si>
     <t xml:space="preserve">ТИК района Раменки  </t>
   </si>
@@ -1564,6 +1564,12 @@
   </si>
   <si>
     <t>11:51:09</t>
+  </si>
+  <si>
+    <t>Васильев Владислав Игоревич</t>
+  </si>
+  <si>
+    <t>Лисицына Елена Петровна</t>
   </si>
 </sst>
 </file>
@@ -1925,10 +1931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B9BF735-69BB-44B8-9ADE-14E02C449AF1}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1984,7 +1990,7 @@
         <v>66</v>
       </c>
       <c r="D2">
-        <v>644</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
         <v>67</v>
@@ -2019,7 +2025,7 @@
         <v>66</v>
       </c>
       <c r="D3">
-        <v>630</v>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
         <v>67</v>
@@ -2054,7 +2060,7 @@
         <v>66</v>
       </c>
       <c r="D4">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="E4" t="s">
         <v>67</v>
@@ -2089,7 +2095,7 @@
         <v>66</v>
       </c>
       <c r="D5">
-        <v>612</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
         <v>67</v>
@@ -2124,7 +2130,7 @@
         <v>66</v>
       </c>
       <c r="D6">
-        <v>618</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
         <v>67</v>
@@ -2159,7 +2165,7 @@
         <v>66</v>
       </c>
       <c r="D7">
-        <v>643</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
         <v>67</v>
@@ -2194,7 +2200,7 @@
         <v>66</v>
       </c>
       <c r="D8">
-        <v>702</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
         <v>67</v>
@@ -2229,7 +2235,7 @@
         <v>66</v>
       </c>
       <c r="D9">
-        <v>704</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
         <v>67</v>
@@ -2250,6 +2256,76 @@
         <v>82</v>
       </c>
       <c r="K9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>508</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10" t="s">
+        <v>82</v>
+      </c>
+      <c r="K10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>509</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" t="s">
+        <v>72</v>
+      </c>
+      <c r="J11" t="s">
+        <v>82</v>
+      </c>
+      <c r="K11" t="s">
         <v>81</v>
       </c>
     </row>
@@ -10510,7 +10586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48112E11-0ED7-410D-9774-E50117BE0ED2}">
   <dimension ref="A1:G135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H126" sqref="H126"/>
     </sheetView>
   </sheetViews>

--- a/data_for_db/electorator_data_many_2.xlsx
+++ b/data_for_db/electorator_data_many_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tom\python\electorator\data_for_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF444B00-AC97-4F85-B7EA-65586E75558E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D5F7A8-3A70-4601-96E7-FBACD3A7467A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11950" yWindow="470" windowWidth="14400" windowHeight="5960" activeTab="2" xr2:uid="{CED9FC26-9461-43CF-A83C-FF0002950223}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{CED9FC26-9461-43CF-A83C-FF0002950223}"/>
   </bookViews>
   <sheets>
     <sheet name="tik" sheetId="7" r:id="rId1"/>
@@ -683,9 +683,6 @@
     <t>ТИК ТЕСТ района</t>
   </si>
   <si>
-    <t>photo5.jpg</t>
-  </si>
-  <si>
     <t>photo6-1.jpg</t>
   </si>
   <si>
@@ -723,6 +720,9 @@
   </si>
   <si>
     <t>photo12.jpg</t>
+  </si>
+  <si>
+    <t>photo5.jpeg</t>
   </si>
 </sst>
 </file>
@@ -5529,13 +5529,13 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.7265625" customWidth="1"/>
-    <col min="2" max="2" width="11.6328125" customWidth="1"/>
+    <col min="1" max="1" width="29.26953125" customWidth="1"/>
+    <col min="2" max="2" width="11.6328125" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="17.453125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="10.81640625" customWidth="1"/>
     <col min="5" max="5" width="14.54296875" customWidth="1"/>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>74</v>
@@ -5661,7 +5661,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>75</v>
@@ -5696,7 +5696,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>76</v>
@@ -5719,7 +5719,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B6" t="s">
         <v>63</v>
@@ -5731,7 +5731,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>77</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>78</v>
@@ -5801,7 +5801,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>79</v>
@@ -5836,7 +5836,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>80</v>
@@ -5859,7 +5859,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B10" t="s">
         <v>64</v>
@@ -5871,10 +5871,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G10" t="s">
         <v>68</v>
@@ -5894,7 +5894,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B11" t="s">
         <v>64</v>
@@ -5906,10 +5906,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G11" t="s">
         <v>68</v>

--- a/data_for_db/electorator_data_many_2.xlsx
+++ b/data_for_db/electorator_data_many_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tom\python\electorator\data_for_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDEC473-FEC5-46FF-98C5-6DD00588A219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E500BEE-5523-4F70-BC2C-C89A7209FC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{CED9FC26-9461-43CF-A83C-FF0002950223}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{CED9FC26-9461-43CF-A83C-FF0002950223}"/>
   </bookViews>
   <sheets>
     <sheet name="candidate" sheetId="2" r:id="rId1"/>
@@ -20,9 +20,10 @@
     <sheet name="protocol1" sheetId="3" r:id="rId5"/>
     <sheet name="uikprotocol1" sheetId="10" r:id="rId6"/>
     <sheet name="protocol2" sheetId="4" r:id="rId7"/>
-    <sheet name="cand_2" sheetId="11" r:id="rId8"/>
+    <sheet name="prot_1" sheetId="12" r:id="rId8"/>
+    <sheet name="cand_2" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="517">
   <si>
     <t xml:space="preserve">ТИК района Раменки  </t>
   </si>
@@ -1200,6 +1201,396 @@
   </si>
   <si>
     <t>11:54:09</t>
+  </si>
+  <si>
+    <t>11:49:00</t>
+  </si>
+  <si>
+    <t>11:49:01</t>
+  </si>
+  <si>
+    <t>11:49:02</t>
+  </si>
+  <si>
+    <t>11:49:03</t>
+  </si>
+  <si>
+    <t>11:49:04</t>
+  </si>
+  <si>
+    <t>11:49:05</t>
+  </si>
+  <si>
+    <t>11:49:06</t>
+  </si>
+  <si>
+    <t>11:49:07</t>
+  </si>
+  <si>
+    <t>11:49:08</t>
+  </si>
+  <si>
+    <t>11:49:09</t>
+  </si>
+  <si>
+    <t>11:49:10</t>
+  </si>
+  <si>
+    <t>11:49:11</t>
+  </si>
+  <si>
+    <t>11:49:12</t>
+  </si>
+  <si>
+    <t>11:49:13</t>
+  </si>
+  <si>
+    <t>11:49:14</t>
+  </si>
+  <si>
+    <t>11:49:15</t>
+  </si>
+  <si>
+    <t>11:49:16</t>
+  </si>
+  <si>
+    <t>11:49:17</t>
+  </si>
+  <si>
+    <t>11:49:18</t>
+  </si>
+  <si>
+    <t>11:49:19</t>
+  </si>
+  <si>
+    <t>11:49:20</t>
+  </si>
+  <si>
+    <t>11:49:21</t>
+  </si>
+  <si>
+    <t>11:49:22</t>
+  </si>
+  <si>
+    <t>11:49:23</t>
+  </si>
+  <si>
+    <t>11:49:24</t>
+  </si>
+  <si>
+    <t>11:49:25</t>
+  </si>
+  <si>
+    <t>11:49:26</t>
+  </si>
+  <si>
+    <t>11:49:27</t>
+  </si>
+  <si>
+    <t>11:49:28</t>
+  </si>
+  <si>
+    <t>11:49:29</t>
+  </si>
+  <si>
+    <t>11:49:30</t>
+  </si>
+  <si>
+    <t>11:49:31</t>
+  </si>
+  <si>
+    <t>11:49:32</t>
+  </si>
+  <si>
+    <t>11:49:33</t>
+  </si>
+  <si>
+    <t>11:49:34</t>
+  </si>
+  <si>
+    <t>11:49:35</t>
+  </si>
+  <si>
+    <t>11:49:36</t>
+  </si>
+  <si>
+    <t>11:49:37</t>
+  </si>
+  <si>
+    <t>11:49:38</t>
+  </si>
+  <si>
+    <t>11:49:39</t>
+  </si>
+  <si>
+    <t>11:49:40</t>
+  </si>
+  <si>
+    <t>11:49:41</t>
+  </si>
+  <si>
+    <t>11:49:42</t>
+  </si>
+  <si>
+    <t>11:49:43</t>
+  </si>
+  <si>
+    <t>11:49:44</t>
+  </si>
+  <si>
+    <t>11:49:45</t>
+  </si>
+  <si>
+    <t>11:49:46</t>
+  </si>
+  <si>
+    <t>11:49:47</t>
+  </si>
+  <si>
+    <t>11:49:48</t>
+  </si>
+  <si>
+    <t>11:49:49</t>
+  </si>
+  <si>
+    <t>11:49:50</t>
+  </si>
+  <si>
+    <t>11:49:51</t>
+  </si>
+  <si>
+    <t>11:49:52</t>
+  </si>
+  <si>
+    <t>11:49:53</t>
+  </si>
+  <si>
+    <t>11:49:54</t>
+  </si>
+  <si>
+    <t>11:49:55</t>
+  </si>
+  <si>
+    <t>11:49:56</t>
+  </si>
+  <si>
+    <t>11:49:57</t>
+  </si>
+  <si>
+    <t>11:49:58</t>
+  </si>
+  <si>
+    <t>11:49:59</t>
+  </si>
+  <si>
+    <t>11:50:00</t>
+  </si>
+  <si>
+    <t>11:50:01</t>
+  </si>
+  <si>
+    <t>11:50:02</t>
+  </si>
+  <si>
+    <t>11:50:03</t>
+  </si>
+  <si>
+    <t>11:50:04</t>
+  </si>
+  <si>
+    <t>11:50:05</t>
+  </si>
+  <si>
+    <t>11:50:06</t>
+  </si>
+  <si>
+    <t>11:50:07</t>
+  </si>
+  <si>
+    <t>11:50:08</t>
+  </si>
+  <si>
+    <t>11:50:09</t>
+  </si>
+  <si>
+    <t>11:50:10</t>
+  </si>
+  <si>
+    <t>11:50:11</t>
+  </si>
+  <si>
+    <t>11:50:12</t>
+  </si>
+  <si>
+    <t>11:50:13</t>
+  </si>
+  <si>
+    <t>11:50:14</t>
+  </si>
+  <si>
+    <t>11:50:15</t>
+  </si>
+  <si>
+    <t>11:50:16</t>
+  </si>
+  <si>
+    <t>11:50:17</t>
+  </si>
+  <si>
+    <t>11:50:18</t>
+  </si>
+  <si>
+    <t>11:50:19</t>
+  </si>
+  <si>
+    <t>11:50:20</t>
+  </si>
+  <si>
+    <t>11:50:21</t>
+  </si>
+  <si>
+    <t>11:50:22</t>
+  </si>
+  <si>
+    <t>11:50:23</t>
+  </si>
+  <si>
+    <t>11:50:24</t>
+  </si>
+  <si>
+    <t>11:50:25</t>
+  </si>
+  <si>
+    <t>11:50:26</t>
+  </si>
+  <si>
+    <t>11:50:27</t>
+  </si>
+  <si>
+    <t>11:50:28</t>
+  </si>
+  <si>
+    <t>11:50:29</t>
+  </si>
+  <si>
+    <t>11:50:30</t>
+  </si>
+  <si>
+    <t>11:50:31</t>
+  </si>
+  <si>
+    <t>11:50:32</t>
+  </si>
+  <si>
+    <t>11:50:33</t>
+  </si>
+  <si>
+    <t>11:50:34</t>
+  </si>
+  <si>
+    <t>11:50:35</t>
+  </si>
+  <si>
+    <t>11:50:36</t>
+  </si>
+  <si>
+    <t>11:50:37</t>
+  </si>
+  <si>
+    <t>11:50:38</t>
+  </si>
+  <si>
+    <t>11:50:39</t>
+  </si>
+  <si>
+    <t>11:50:40</t>
+  </si>
+  <si>
+    <t>11:50:41</t>
+  </si>
+  <si>
+    <t>11:50:42</t>
+  </si>
+  <si>
+    <t>11:50:43</t>
+  </si>
+  <si>
+    <t>11:50:44</t>
+  </si>
+  <si>
+    <t>11:50:45</t>
+  </si>
+  <si>
+    <t>11:50:46</t>
+  </si>
+  <si>
+    <t>11:50:47</t>
+  </si>
+  <si>
+    <t>11:50:48</t>
+  </si>
+  <si>
+    <t>11:50:49</t>
+  </si>
+  <si>
+    <t>11:50:50</t>
+  </si>
+  <si>
+    <t>11:50:51</t>
+  </si>
+  <si>
+    <t>11:50:52</t>
+  </si>
+  <si>
+    <t>11:50:53</t>
+  </si>
+  <si>
+    <t>11:50:54</t>
+  </si>
+  <si>
+    <t>11:50:55</t>
+  </si>
+  <si>
+    <t>11:50:56</t>
+  </si>
+  <si>
+    <t>11:50:57</t>
+  </si>
+  <si>
+    <t>11:50:58</t>
+  </si>
+  <si>
+    <t>11:50:59</t>
+  </si>
+  <si>
+    <t>11:51:00</t>
+  </si>
+  <si>
+    <t>11:51:01</t>
+  </si>
+  <si>
+    <t>11:51:02</t>
+  </si>
+  <si>
+    <t>11:51:03</t>
+  </si>
+  <si>
+    <t>11:51:04</t>
+  </si>
+  <si>
+    <t>11:51:05</t>
+  </si>
+  <si>
+    <t>11:51:06</t>
+  </si>
+  <si>
+    <t>11:51:07</t>
+  </si>
+  <si>
+    <t>11:51:08</t>
+  </si>
+  <si>
+    <t>11:51:09</t>
   </si>
 </sst>
 </file>
@@ -6931,8 +7322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D04D890-9948-4CF6-939B-9E7E1C90F105}">
   <dimension ref="A1:J131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9736,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <f t="shared" ref="F82:F122" si="2">ROUNDUP(D85/B85*100,0)</f>
+        <f t="shared" ref="F85:F122" si="2">ROUNDUP(D85/B85*100,0)</f>
         <v>2</v>
       </c>
       <c r="G85">
@@ -11279,18 +11670,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48112E11-0ED7-410D-9774-E50117BE0ED2}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G5"/>
+      <selection activeCell="F133" sqref="F133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" customWidth="1"/>
+    <col min="2" max="2" width="6.90625" customWidth="1"/>
     <col min="3" max="3" width="9.7265625" customWidth="1"/>
     <col min="4" max="4" width="14.54296875" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" customWidth="1"/>
     <col min="6" max="6" width="14.08984375" customWidth="1"/>
     <col min="7" max="7" width="12.7265625" customWidth="1"/>
   </cols>
@@ -11320,13 +11712,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>89</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -11335,21 +11727,21 @@
         <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>150</v>
+        <v>387</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>89</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -11358,21 +11750,21 @@
         <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>151</v>
+        <v>388</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>89</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -11381,21 +11773,21 @@
         <v>0</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>150</v>
+        <v>389</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>89</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -11404,10 +11796,10 @@
         <v>0</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>151</v>
+        <v>390</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -11418,7 +11810,7 @@
         <v>89</v>
       </c>
       <c r="C6">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11427,10 +11819,10 @@
         <v>0</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>136</v>
+        <v>391</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -11441,7 +11833,7 @@
         <v>89</v>
       </c>
       <c r="C7">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -11450,10 +11842,10 @@
         <v>0</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>137</v>
+        <v>392</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -11464,7 +11856,7 @@
         <v>89</v>
       </c>
       <c r="C8">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -11473,10 +11865,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>202</v>
+        <v>393</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -11487,19 +11879,2825 @@
         <v>89</v>
       </c>
       <c r="C9">
+        <v>40</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="G9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10">
+        <v>50</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="G10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11">
+        <v>60</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="G11">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12">
+        <v>70</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="G12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13">
+        <v>80</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="G13">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14">
+        <v>90</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="G14">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="G15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16">
+        <v>110</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="G16">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17">
+        <v>120</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="G17">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18">
+        <v>130</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="G18">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="G19">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20">
+        <v>20</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="G20">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21">
+        <v>30</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="G21">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22">
+        <v>40</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="G22">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23">
+        <v>50</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="G23">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24">
+        <v>60</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="G24">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25">
+        <v>70</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="G25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26">
+        <v>80</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="G26">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27">
+        <v>90</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="G27">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28">
+        <v>100</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="G28">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29">
+        <v>110</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="G29">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30">
+        <v>120</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="G30">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31">
+        <v>130</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="G31">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="G32">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33">
+        <v>20</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="G33">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34">
+        <v>30</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="G34">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35">
+        <v>40</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="G35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36">
+        <v>50</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="G36">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37">
+        <v>60</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="G37">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38">
+        <v>70</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="G38">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39">
+        <v>80</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="G39">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40">
+        <v>90</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="G40">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41">
+        <v>100</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="G41">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42">
+        <v>110</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="G42">
         <v>67</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="G9">
-        <v>8</v>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43">
+        <v>120</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="G43">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44">
+        <v>130</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="G44">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45">
+        <v>10</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="G45">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46">
+        <v>20</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="G46">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47">
+        <v>30</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="G47">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48">
+        <v>40</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="G48">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49">
+        <v>50</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="G49">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50">
+        <v>60</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="G50">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51">
+        <v>70</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="G51">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52">
+        <v>80</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="G52">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53">
+        <v>90</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="G53">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54">
+        <v>100</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="G54">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55" t="s">
+        <v>89</v>
+      </c>
+      <c r="C55">
+        <v>110</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="G55">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56" t="s">
+        <v>89</v>
+      </c>
+      <c r="C56">
+        <v>120</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="G56">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57" t="s">
+        <v>89</v>
+      </c>
+      <c r="C57">
+        <v>130</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="G57">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58" t="s">
+        <v>89</v>
+      </c>
+      <c r="C58">
+        <v>10</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="G58">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59" t="s">
+        <v>89</v>
+      </c>
+      <c r="C59">
+        <v>20</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="G59">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60" t="s">
+        <v>89</v>
+      </c>
+      <c r="C60">
+        <v>30</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="G60">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61" t="s">
+        <v>89</v>
+      </c>
+      <c r="C61">
+        <v>40</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="G61">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62" t="s">
+        <v>89</v>
+      </c>
+      <c r="C62">
+        <v>50</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="G62">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63" t="s">
+        <v>89</v>
+      </c>
+      <c r="C63">
+        <v>60</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="G63">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>70</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="G64">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65" t="s">
+        <v>89</v>
+      </c>
+      <c r="C65">
+        <v>80</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="G65">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66" t="s">
+        <v>89</v>
+      </c>
+      <c r="C66">
+        <v>90</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="G66">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67">
+        <v>100</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="G67">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68" t="s">
+        <v>89</v>
+      </c>
+      <c r="C68">
+        <v>110</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="G68">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69" t="s">
+        <v>89</v>
+      </c>
+      <c r="C69">
+        <v>120</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="G69">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70" t="s">
+        <v>89</v>
+      </c>
+      <c r="C70">
+        <v>130</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="G70">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71" t="s">
+        <v>89</v>
+      </c>
+      <c r="C71">
+        <v>10</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="G71">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72" t="s">
+        <v>89</v>
+      </c>
+      <c r="C72">
+        <v>20</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="G72">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73" t="s">
+        <v>89</v>
+      </c>
+      <c r="C73">
+        <v>30</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="G73">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74" t="s">
+        <v>89</v>
+      </c>
+      <c r="C74">
+        <v>40</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="G74">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75" t="s">
+        <v>89</v>
+      </c>
+      <c r="C75">
+        <v>50</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="G75">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>1</v>
+      </c>
+      <c r="B76" t="s">
+        <v>89</v>
+      </c>
+      <c r="C76">
+        <v>60</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="G76">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="B77" t="s">
+        <v>89</v>
+      </c>
+      <c r="C77">
+        <v>70</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="G77">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="B78" t="s">
+        <v>89</v>
+      </c>
+      <c r="C78">
+        <v>80</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="G78">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>1</v>
+      </c>
+      <c r="B79" t="s">
+        <v>89</v>
+      </c>
+      <c r="C79">
+        <v>90</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="G79">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="B80" t="s">
+        <v>89</v>
+      </c>
+      <c r="C80">
+        <v>100</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="G80">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>1</v>
+      </c>
+      <c r="B81" t="s">
+        <v>89</v>
+      </c>
+      <c r="C81">
+        <v>110</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="G81">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="B82" t="s">
+        <v>89</v>
+      </c>
+      <c r="C82">
+        <v>10</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="G82">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>1</v>
+      </c>
+      <c r="B83" t="s">
+        <v>89</v>
+      </c>
+      <c r="C83">
+        <v>20</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="G83">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>1</v>
+      </c>
+      <c r="B84" t="s">
+        <v>89</v>
+      </c>
+      <c r="C84">
+        <v>30</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="G84">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>1</v>
+      </c>
+      <c r="B85" t="s">
+        <v>89</v>
+      </c>
+      <c r="C85">
+        <v>40</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="G85">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="B86" t="s">
+        <v>89</v>
+      </c>
+      <c r="C86">
+        <v>50</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G86">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>1</v>
+      </c>
+      <c r="B87" t="s">
+        <v>89</v>
+      </c>
+      <c r="C87">
+        <v>60</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="G87">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>1</v>
+      </c>
+      <c r="B88" t="s">
+        <v>89</v>
+      </c>
+      <c r="C88">
+        <v>70</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="G88">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>1</v>
+      </c>
+      <c r="B89" t="s">
+        <v>89</v>
+      </c>
+      <c r="C89">
+        <v>80</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G89">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="B90" t="s">
+        <v>89</v>
+      </c>
+      <c r="C90">
+        <v>90</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="G90">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>1</v>
+      </c>
+      <c r="B91" t="s">
+        <v>89</v>
+      </c>
+      <c r="C91">
+        <v>100</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G91">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>1</v>
+      </c>
+      <c r="B92" t="s">
+        <v>89</v>
+      </c>
+      <c r="C92">
+        <v>110</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="G92">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>1</v>
+      </c>
+      <c r="B93" t="s">
+        <v>89</v>
+      </c>
+      <c r="C93">
+        <v>120</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="G93">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>1</v>
+      </c>
+      <c r="B94" t="s">
+        <v>89</v>
+      </c>
+      <c r="C94">
+        <v>130</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="G94">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>1</v>
+      </c>
+      <c r="B95" t="s">
+        <v>89</v>
+      </c>
+      <c r="C95">
+        <v>10</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="G95">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>1</v>
+      </c>
+      <c r="B96" t="s">
+        <v>89</v>
+      </c>
+      <c r="C96">
+        <v>20</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="G96">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>1</v>
+      </c>
+      <c r="B97" t="s">
+        <v>89</v>
+      </c>
+      <c r="C97">
+        <v>30</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="G97">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>1</v>
+      </c>
+      <c r="B98" t="s">
+        <v>89</v>
+      </c>
+      <c r="C98">
+        <v>40</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="G98">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>1</v>
+      </c>
+      <c r="B99" t="s">
+        <v>89</v>
+      </c>
+      <c r="C99">
+        <v>50</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="G99">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>1</v>
+      </c>
+      <c r="B100" t="s">
+        <v>89</v>
+      </c>
+      <c r="C100">
+        <v>60</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="G100">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>1</v>
+      </c>
+      <c r="B101" t="s">
+        <v>89</v>
+      </c>
+      <c r="C101">
+        <v>70</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="G101">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>1</v>
+      </c>
+      <c r="B102" t="s">
+        <v>89</v>
+      </c>
+      <c r="C102">
+        <v>80</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="G102">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>1</v>
+      </c>
+      <c r="B103" t="s">
+        <v>89</v>
+      </c>
+      <c r="C103">
+        <v>90</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="G103">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>1</v>
+      </c>
+      <c r="B104" t="s">
+        <v>89</v>
+      </c>
+      <c r="C104">
+        <v>100</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="G104">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>1</v>
+      </c>
+      <c r="B105" t="s">
+        <v>89</v>
+      </c>
+      <c r="C105">
+        <v>110</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="G105">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>1</v>
+      </c>
+      <c r="B106" t="s">
+        <v>89</v>
+      </c>
+      <c r="C106">
+        <v>120</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="G106">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>1</v>
+      </c>
+      <c r="B107" t="s">
+        <v>89</v>
+      </c>
+      <c r="C107">
+        <v>130</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="G107">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>1</v>
+      </c>
+      <c r="B108" t="s">
+        <v>89</v>
+      </c>
+      <c r="C108">
+        <v>10</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="G108">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>1</v>
+      </c>
+      <c r="B109" t="s">
+        <v>89</v>
+      </c>
+      <c r="C109">
+        <v>20</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="G109">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>1</v>
+      </c>
+      <c r="B110" t="s">
+        <v>89</v>
+      </c>
+      <c r="C110">
+        <v>30</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="G110">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>1</v>
+      </c>
+      <c r="B111" t="s">
+        <v>89</v>
+      </c>
+      <c r="C111">
+        <v>40</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="G111">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>1</v>
+      </c>
+      <c r="B112" t="s">
+        <v>89</v>
+      </c>
+      <c r="C112">
+        <v>50</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="G112">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>1</v>
+      </c>
+      <c r="B113" t="s">
+        <v>89</v>
+      </c>
+      <c r="C113">
+        <v>60</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="G113">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>1</v>
+      </c>
+      <c r="B114" t="s">
+        <v>89</v>
+      </c>
+      <c r="C114">
+        <v>70</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="G114">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>1</v>
+      </c>
+      <c r="B115" t="s">
+        <v>89</v>
+      </c>
+      <c r="C115">
+        <v>80</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="G115">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>1</v>
+      </c>
+      <c r="B116" t="s">
+        <v>89</v>
+      </c>
+      <c r="C116">
+        <v>90</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="G116">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>1</v>
+      </c>
+      <c r="B117" t="s">
+        <v>89</v>
+      </c>
+      <c r="C117">
+        <v>100</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="G117">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>1</v>
+      </c>
+      <c r="B118" t="s">
+        <v>89</v>
+      </c>
+      <c r="C118">
+        <v>110</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="G118">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>1</v>
+      </c>
+      <c r="B119" t="s">
+        <v>89</v>
+      </c>
+      <c r="C119">
+        <v>120</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="G119">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>1</v>
+      </c>
+      <c r="B120" t="s">
+        <v>89</v>
+      </c>
+      <c r="C120">
+        <v>130</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="G120">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>1</v>
+      </c>
+      <c r="B121" t="s">
+        <v>89</v>
+      </c>
+      <c r="C121">
+        <v>10</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="G121">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>1</v>
+      </c>
+      <c r="B122" t="s">
+        <v>89</v>
+      </c>
+      <c r="C122">
+        <v>20</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="G122">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>1</v>
+      </c>
+      <c r="B123" t="s">
+        <v>89</v>
+      </c>
+      <c r="C123">
+        <v>30</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="G123">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>1</v>
+      </c>
+      <c r="B124" t="s">
+        <v>89</v>
+      </c>
+      <c r="C124">
+        <v>40</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="G124">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>1</v>
+      </c>
+      <c r="B125" t="s">
+        <v>89</v>
+      </c>
+      <c r="C125">
+        <v>50</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="G125">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>1</v>
+      </c>
+      <c r="B126" t="s">
+        <v>89</v>
+      </c>
+      <c r="C126">
+        <v>60</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="G126">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>1</v>
+      </c>
+      <c r="B127" t="s">
+        <v>89</v>
+      </c>
+      <c r="C127">
+        <v>70</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="G127">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>1</v>
+      </c>
+      <c r="B128" t="s">
+        <v>89</v>
+      </c>
+      <c r="C128">
+        <v>80</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="G128">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>1</v>
+      </c>
+      <c r="B129" t="s">
+        <v>89</v>
+      </c>
+      <c r="C129">
+        <v>90</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="G129">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>1</v>
+      </c>
+      <c r="B130" t="s">
+        <v>89</v>
+      </c>
+      <c r="C130">
+        <v>100</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="G130">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>1</v>
+      </c>
+      <c r="B131" t="s">
+        <v>89</v>
+      </c>
+      <c r="C131">
+        <v>110</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="G131">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -11511,10 +14709,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9F9E3C-CBB1-4805-91C0-6970A2BECB16}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11532,66 +14730,1042 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>43</v>
+      </c>
+      <c r="B10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>44</v>
+      </c>
+      <c r="B11">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>45</v>
+      </c>
+      <c r="B12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>46</v>
+      </c>
+      <c r="B13">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>48</v>
+      </c>
+      <c r="B15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>49</v>
+      </c>
+      <c r="B16">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>50</v>
+      </c>
+      <c r="B17">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>51</v>
+      </c>
+      <c r="B18">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>52</v>
+      </c>
+      <c r="B19">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>53</v>
+      </c>
+      <c r="B20">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>54</v>
+      </c>
+      <c r="B21">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>55</v>
+      </c>
+      <c r="B22">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>56</v>
+      </c>
+      <c r="B23">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>57</v>
+      </c>
+      <c r="B24">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>58</v>
+      </c>
+      <c r="B25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>59</v>
+      </c>
+      <c r="B26">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>60</v>
+      </c>
+      <c r="B27">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>61</v>
+      </c>
+      <c r="B28">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>62</v>
+      </c>
+      <c r="B29">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>63</v>
+      </c>
+      <c r="B30">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>64</v>
+      </c>
+      <c r="B31">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>65</v>
+      </c>
+      <c r="B32">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>66</v>
+      </c>
+      <c r="B33">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>67</v>
+      </c>
+      <c r="B34">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>68</v>
+      </c>
+      <c r="B35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>69</v>
+      </c>
+      <c r="B36">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>70</v>
+      </c>
+      <c r="B37">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>71</v>
+      </c>
+      <c r="B38">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>72</v>
+      </c>
+      <c r="B39">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>73</v>
+      </c>
+      <c r="B40">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>74</v>
+      </c>
+      <c r="B41">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>75</v>
+      </c>
+      <c r="B42">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>76</v>
+      </c>
+      <c r="B43">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>77</v>
+      </c>
+      <c r="B44">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>78</v>
+      </c>
+      <c r="B45">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>79</v>
+      </c>
+      <c r="B46">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>80</v>
+      </c>
+      <c r="B47">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>81</v>
+      </c>
+      <c r="B48">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>82</v>
+      </c>
+      <c r="B49">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>83</v>
+      </c>
+      <c r="B50">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>84</v>
+      </c>
+      <c r="B51">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>85</v>
+      </c>
+      <c r="B52">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>86</v>
+      </c>
+      <c r="B53">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>87</v>
+      </c>
+      <c r="B54">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>88</v>
+      </c>
+      <c r="B55">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>89</v>
+      </c>
+      <c r="B56">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>90</v>
+      </c>
+      <c r="B57">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>91</v>
+      </c>
+      <c r="B58">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>92</v>
+      </c>
+      <c r="B59">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>93</v>
+      </c>
+      <c r="B60">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>94</v>
+      </c>
+      <c r="B61">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>95</v>
+      </c>
+      <c r="B62">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>96</v>
+      </c>
+      <c r="B63">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>97</v>
+      </c>
+      <c r="B64">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>98</v>
+      </c>
+      <c r="B65">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>99</v>
+      </c>
+      <c r="B66">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>100</v>
+      </c>
+      <c r="B67">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>101</v>
+      </c>
+      <c r="B68">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>102</v>
+      </c>
+      <c r="B69">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>103</v>
+      </c>
+      <c r="B70">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>104</v>
+      </c>
+      <c r="B71">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>105</v>
+      </c>
+      <c r="B72">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>106</v>
+      </c>
+      <c r="B73">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>107</v>
+      </c>
+      <c r="B74">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>108</v>
+      </c>
+      <c r="B75">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>109</v>
+      </c>
+      <c r="B76">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>110</v>
+      </c>
+      <c r="B77">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>111</v>
+      </c>
+      <c r="B78">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>112</v>
+      </c>
+      <c r="B79">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>113</v>
+      </c>
+      <c r="B80">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>114</v>
+      </c>
+      <c r="B81">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>115</v>
+      </c>
+      <c r="B82">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>116</v>
+      </c>
+      <c r="B83">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>117</v>
+      </c>
+      <c r="B84">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>118</v>
+      </c>
+      <c r="B85">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>119</v>
+      </c>
+      <c r="B86">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>120</v>
+      </c>
+      <c r="B87">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>121</v>
+      </c>
+      <c r="B88">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>122</v>
+      </c>
+      <c r="B89">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>123</v>
+      </c>
+      <c r="B90">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>124</v>
+      </c>
+      <c r="B91">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>125</v>
+      </c>
+      <c r="B92">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>126</v>
+      </c>
+      <c r="B93">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>127</v>
+      </c>
+      <c r="B94">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>128</v>
+      </c>
+      <c r="B95">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>129</v>
+      </c>
+      <c r="B96">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>130</v>
+      </c>
+      <c r="B97">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>131</v>
+      </c>
+      <c r="B98">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>132</v>
+      </c>
+      <c r="B99">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>133</v>
+      </c>
+      <c r="B100">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>134</v>
+      </c>
+      <c r="B101">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>135</v>
+      </c>
+      <c r="B102">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>136</v>
+      </c>
+      <c r="B103">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>137</v>
+      </c>
+      <c r="B104">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>138</v>
+      </c>
+      <c r="B105">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>139</v>
+      </c>
+      <c r="B106">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>140</v>
+      </c>
+      <c r="B107">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>141</v>
+      </c>
+      <c r="B108">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>142</v>
+      </c>
+      <c r="B109">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>143</v>
+      </c>
+      <c r="B110">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>144</v>
+      </c>
+      <c r="B111">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>145</v>
+      </c>
+      <c r="B112">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>146</v>
+      </c>
+      <c r="B113">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>147</v>
+      </c>
+      <c r="B114">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>148</v>
+      </c>
+      <c r="B115">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>149</v>
+      </c>
+      <c r="B116">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>150</v>
+      </c>
+      <c r="B117">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>151</v>
+      </c>
+      <c r="B118">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>152</v>
+      </c>
+      <c r="B119">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>153</v>
+      </c>
+      <c r="B120">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>154</v>
+      </c>
+      <c r="B121">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>155</v>
+      </c>
+      <c r="B122">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>156</v>
+      </c>
+      <c r="B123">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>157</v>
+      </c>
+      <c r="B124">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>158</v>
+      </c>
+      <c r="B125">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>159</v>
+      </c>
+      <c r="B126">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>160</v>
+      </c>
+      <c r="B127">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>161</v>
+      </c>
+      <c r="B128">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>162</v>
+      </c>
+      <c r="B129">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>163</v>
+      </c>
+      <c r="B130">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>164</v>
+      </c>
+      <c r="B131">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -12049,11 +16223,233 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F2DC09-F2F9-4240-9F0A-25E23C489C66}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6">
+        <v>56</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7">
+        <v>67</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8">
+        <v>67</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9">
+        <v>67</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7695B45-B96E-4D7A-8E10-C75CDACAFE0A}">
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A1:XFD1048576"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/data_for_db/electorator_data_many_2.xlsx
+++ b/data_for_db/electorator_data_many_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tom\python\electorator\data_for_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E500BEE-5523-4F70-BC2C-C89A7209FC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083EC064-3D4B-44F0-9DF8-428305C21161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{CED9FC26-9461-43CF-A83C-FF0002950223}"/>
+    <workbookView xWindow="290" yWindow="3800" windowWidth="14400" windowHeight="5960" xr2:uid="{CED9FC26-9461-43CF-A83C-FF0002950223}"/>
   </bookViews>
   <sheets>
     <sheet name="candidate" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="526">
   <si>
     <t xml:space="preserve">ТИК района Раменки  </t>
   </si>
@@ -1591,6 +1591,33 @@
   </si>
   <si>
     <t>11:51:09</t>
+  </si>
+  <si>
+    <t>photo6-1.jpg</t>
+  </si>
+  <si>
+    <t>photo7-1.jpg</t>
+  </si>
+  <si>
+    <t>photo11.jpg</t>
+  </si>
+  <si>
+    <t>photo12.jpg</t>
+  </si>
+  <si>
+    <t>photo9.jfif</t>
+  </si>
+  <si>
+    <t>photo4.jfif</t>
+  </si>
+  <si>
+    <t>из БД, по которой тесты шли:</t>
+  </si>
+  <si>
+    <t>photo5.jpeg</t>
+  </si>
+  <si>
+    <t>photo8-2.jpeg</t>
   </si>
 </sst>
 </file>
@@ -1954,8 +1981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B9BF735-69BB-44B8-9ADE-14E02C449AF1}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2052,7 +2079,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>210</v>
+        <v>522</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>74</v>
@@ -2087,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>210</v>
+        <v>524</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>75</v>
@@ -2122,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>210</v>
+        <v>517</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>76</v>
@@ -2157,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>210</v>
+        <v>518</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>77</v>
@@ -2192,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>210</v>
+        <v>525</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>78</v>
@@ -2227,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>210</v>
+        <v>521</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>79</v>
@@ -2297,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>210</v>
+        <v>519</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>213</v>
@@ -2332,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>210</v>
+        <v>520</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>214</v>
@@ -14711,7 +14738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9F9E3C-CBB1-4805-91C0-6970A2BECB16}">
   <dimension ref="A1:B131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -16446,10 +16473,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7695B45-B96E-4D7A-8E10-C75CDACAFE0A}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16844,6 +16871,59 @@
         <v>81</v>
       </c>
     </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
+        <v>523</v>
+      </c>
+      <c r="D16">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D17">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D18">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D19">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D20">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D21">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D22">
+        <v>2767</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D23">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D24">
+        <v>8755</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D25">
+        <v>482</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_for_db/electorator_data_many_2.xlsx
+++ b/data_for_db/electorator_data_many_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tom\python\electorator\data_for_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083EC064-3D4B-44F0-9DF8-428305C21161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF948A8B-629B-4AEA-91B9-611E2F12AD77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="290" yWindow="3800" windowWidth="14400" windowHeight="5960" xr2:uid="{CED9FC26-9461-43CF-A83C-FF0002950223}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CED9FC26-9461-43CF-A83C-FF0002950223}"/>
   </bookViews>
   <sheets>
     <sheet name="candidate" sheetId="2" r:id="rId1"/>
@@ -672,9 +672,6 @@
     <t>Дубов Иван Сергеевич</t>
   </si>
   <si>
-    <t>photo10.jpg</t>
-  </si>
-  <si>
     <t>Васильев Владислав Игоревич</t>
   </si>
   <si>
@@ -1593,31 +1590,34 @@
     <t>11:51:09</t>
   </si>
   <si>
-    <t>photo6-1.jpg</t>
-  </si>
-  <si>
-    <t>photo7-1.jpg</t>
-  </si>
-  <si>
-    <t>photo11.jpg</t>
-  </si>
-  <si>
     <t>photo12.jpg</t>
   </si>
   <si>
-    <t>photo9.jfif</t>
-  </si>
-  <si>
-    <t>photo4.jfif</t>
-  </si>
-  <si>
     <t>из БД, по которой тесты шли:</t>
   </si>
   <si>
-    <t>photo5.jpeg</t>
-  </si>
-  <si>
-    <t>photo8-2.jpeg</t>
+    <t>photo8-2.jpg</t>
+  </si>
+  <si>
+    <t>photo9_cut.jfif</t>
+  </si>
+  <si>
+    <t>photo6-3.jpg</t>
+  </si>
+  <si>
+    <t>photo4_2_cut.jpg</t>
+  </si>
+  <si>
+    <t>photo5_cut.jpg</t>
+  </si>
+  <si>
+    <t>photo14_cut.jpg</t>
+  </si>
+  <si>
+    <t>photo10_3_cut.jpg</t>
+  </si>
+  <si>
+    <t>photo7-2_cut.jpg</t>
   </si>
 </sst>
 </file>
@@ -1982,7 +1982,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E2" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1991,7 +1991,7 @@
     <col min="2" max="2" width="11.6328125" customWidth="1"/>
     <col min="3" max="3" width="17.453125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="10.81640625" customWidth="1"/>
-    <col min="5" max="5" width="14.54296875" customWidth="1"/>
+    <col min="5" max="5" width="19.90625" customWidth="1"/>
     <col min="6" max="6" width="15.7265625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2041,7 +2041,7 @@
         <v>66</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1432</v>
       </c>
       <c r="E2" t="s">
         <v>67</v>
@@ -2076,10 +2076,10 @@
         <v>66</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>74</v>
@@ -2111,10 +2111,10 @@
         <v>66</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="E4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>75</v>
@@ -2146,10 +2146,10 @@
         <v>66</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="E5" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>76</v>
@@ -2181,10 +2181,10 @@
         <v>66</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>588</v>
       </c>
       <c r="E6" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>77</v>
@@ -2216,10 +2216,10 @@
         <v>66</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>546</v>
       </c>
       <c r="E7" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>78</v>
@@ -2251,10 +2251,10 @@
         <v>66</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>2767</v>
       </c>
       <c r="E8" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>79</v>
@@ -2286,10 +2286,10 @@
         <v>66</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="E9" t="s">
-        <v>210</v>
+        <v>524</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>80</v>
@@ -2312,7 +2312,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B10" t="s">
         <v>64</v>
@@ -2321,13 +2321,13 @@
         <v>66</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>8755</v>
       </c>
       <c r="E10" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G10" t="s">
         <v>68</v>
@@ -2347,7 +2347,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B11" t="s">
         <v>64</v>
@@ -2356,13 +2356,13 @@
         <v>66</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>482</v>
       </c>
       <c r="E11" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G11" t="s">
         <v>68</v>
@@ -2459,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I2" t="s">
         <v>103</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I3" t="s">
         <v>101</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I4" t="s">
         <v>104</v>
@@ -2548,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I5" t="s">
         <v>105</v>
@@ -2578,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I6" t="s">
         <v>106</v>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I7" t="s">
         <v>107</v>
@@ -2638,7 +2638,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I8" t="s">
         <v>108</v>
@@ -2668,7 +2668,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I9" t="s">
         <v>109</v>
@@ -2698,7 +2698,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I10" t="s">
         <v>110</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I11" t="s">
         <v>111</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I12" t="s">
         <v>112</v>
@@ -2788,7 +2788,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I13" t="s">
         <v>113</v>
@@ -2818,7 +2818,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I14" t="s">
         <v>114</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I15" t="s">
         <v>115</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I16" t="s">
         <v>116</v>
@@ -2908,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I17" t="s">
         <v>117</v>
@@ -2938,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I18" t="s">
         <v>118</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I19" t="s">
         <v>119</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I20" t="s">
         <v>120</v>
@@ -3028,7 +3028,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I21" t="s">
         <v>121</v>
@@ -3058,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I22" t="s">
         <v>122</v>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I23" t="s">
         <v>123</v>
@@ -3118,7 +3118,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I24" t="s">
         <v>124</v>
@@ -3148,7 +3148,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I25" t="s">
         <v>125</v>
@@ -3178,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I26" t="s">
         <v>126</v>
@@ -3208,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I27" t="s">
         <v>127</v>
@@ -3238,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I28" t="s">
         <v>128</v>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I29" t="s">
         <v>129</v>
@@ -3298,7 +3298,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I30" t="s">
         <v>130</v>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I31" t="s">
         <v>131</v>
@@ -3358,7 +3358,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I32" t="s">
         <v>132</v>
@@ -3388,7 +3388,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I33" t="s">
         <v>133</v>
@@ -3418,7 +3418,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I34" t="s">
         <v>134</v>
@@ -3448,7 +3448,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I35" t="s">
         <v>135</v>
@@ -3478,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I36" t="s">
         <v>152</v>
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I37" t="s">
         <v>153</v>
@@ -3538,7 +3538,7 @@
         <v>0</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I38" t="s">
         <v>154</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I39" t="s">
         <v>155</v>
@@ -3598,7 +3598,7 @@
         <v>0</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I40" t="s">
         <v>156</v>
@@ -3628,7 +3628,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I41" t="s">
         <v>157</v>
@@ -3658,7 +3658,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I42" t="s">
         <v>158</v>
@@ -3688,7 +3688,7 @@
         <v>0</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I43" t="s">
         <v>159</v>
@@ -3718,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I44" t="s">
         <v>160</v>
@@ -3748,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I45" t="s">
         <v>161</v>
@@ -3778,7 +3778,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I46" t="s">
         <v>162</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I47" t="s">
         <v>163</v>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I48" t="s">
         <v>164</v>
@@ -3868,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I49" t="s">
         <v>165</v>
@@ -3898,7 +3898,7 @@
         <v>0</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I50" t="s">
         <v>166</v>
@@ -3928,7 +3928,7 @@
         <v>0</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I51" t="s">
         <v>167</v>
@@ -3958,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I52" t="s">
         <v>168</v>
@@ -3988,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I53" t="s">
         <v>169</v>
@@ -4018,7 +4018,7 @@
         <v>0</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I54" t="s">
         <v>170</v>
@@ -4048,7 +4048,7 @@
         <v>0</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I55" t="s">
         <v>171</v>
@@ -4078,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I56" t="s">
         <v>172</v>
@@ -4108,7 +4108,7 @@
         <v>0</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I57" t="s">
         <v>173</v>
@@ -4138,7 +4138,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I58" t="s">
         <v>174</v>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I59" t="s">
         <v>175</v>
@@ -4198,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I60" t="s">
         <v>176</v>
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I61" t="s">
         <v>177</v>
@@ -4258,7 +4258,7 @@
         <v>0</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I62" t="s">
         <v>178</v>
@@ -4288,7 +4288,7 @@
         <v>0</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I63" t="s">
         <v>179</v>
@@ -4318,7 +4318,7 @@
         <v>0</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I64" t="s">
         <v>180</v>
@@ -4348,7 +4348,7 @@
         <v>0</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I65" t="s">
         <v>181</v>
@@ -4378,7 +4378,7 @@
         <v>0</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I66" t="s">
         <v>182</v>
@@ -4408,7 +4408,7 @@
         <v>0</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I67" t="s">
         <v>183</v>
@@ -4438,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I68" t="s">
         <v>184</v>
@@ -4468,7 +4468,7 @@
         <v>0</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I69" t="s">
         <v>185</v>
@@ -4498,7 +4498,7 @@
         <v>0</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I70" t="s">
         <v>186</v>
@@ -4528,7 +4528,7 @@
         <v>0</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I71" t="s">
         <v>187</v>
@@ -4558,7 +4558,7 @@
         <v>0</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I72" t="s">
         <v>188</v>
@@ -4588,7 +4588,7 @@
         <v>0</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I73" t="s">
         <v>189</v>
@@ -4618,7 +4618,7 @@
         <v>0</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I74" t="s">
         <v>190</v>
@@ -4648,7 +4648,7 @@
         <v>0</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I75" t="s">
         <v>191</v>
@@ -4678,7 +4678,7 @@
         <v>0</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I76" t="s">
         <v>192</v>
@@ -4708,7 +4708,7 @@
         <v>0</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I77" t="s">
         <v>193</v>
@@ -4738,7 +4738,7 @@
         <v>0</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I78" t="s">
         <v>194</v>
@@ -4768,7 +4768,7 @@
         <v>0</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I79" t="s">
         <v>195</v>
@@ -4798,7 +4798,7 @@
         <v>0</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I80" t="s">
         <v>196</v>
@@ -4828,7 +4828,7 @@
         <v>0</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I81" t="s">
         <v>197</v>
@@ -4858,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I82" t="s">
         <v>198</v>
@@ -4888,7 +4888,7 @@
         <v>0</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I83" t="s">
         <v>199</v>
@@ -4918,7 +4918,7 @@
         <v>0</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I84" t="s">
         <v>200</v>
@@ -4948,7 +4948,7 @@
         <v>0</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I85" t="s">
         <v>201</v>
@@ -4978,10 +4978,10 @@
         <v>0</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I86" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
@@ -5008,10 +5008,10 @@
         <v>0</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I87" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
@@ -5038,10 +5038,10 @@
         <v>0</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I88" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
@@ -5068,10 +5068,10 @@
         <v>0</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I89" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
@@ -5098,10 +5098,10 @@
         <v>0</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I90" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
@@ -5128,10 +5128,10 @@
         <v>0</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I91" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.35">
@@ -5158,10 +5158,10 @@
         <v>0</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I92" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.35">
@@ -5188,10 +5188,10 @@
         <v>0</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I93" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.35">
@@ -5218,10 +5218,10 @@
         <v>0</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I94" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
@@ -5248,10 +5248,10 @@
         <v>0</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I95" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.35">
@@ -5278,10 +5278,10 @@
         <v>0</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I96" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.35">
@@ -5308,10 +5308,10 @@
         <v>0</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I97" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
@@ -5338,10 +5338,10 @@
         <v>0</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I98" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
@@ -5368,10 +5368,10 @@
         <v>0</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I99" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.35">
@@ -5398,10 +5398,10 @@
         <v>0</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I100" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.35">
@@ -5428,10 +5428,10 @@
         <v>0</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I101" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.35">
@@ -5458,10 +5458,10 @@
         <v>0</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I102" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.35">
@@ -5488,10 +5488,10 @@
         <v>0</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I103" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.35">
@@ -5518,10 +5518,10 @@
         <v>0</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I104" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.35">
@@ -5548,10 +5548,10 @@
         <v>0</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I105" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.35">
@@ -5578,10 +5578,10 @@
         <v>0</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I106" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.35">
@@ -5608,10 +5608,10 @@
         <v>0</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I107" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.35">
@@ -5638,10 +5638,10 @@
         <v>0</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I108" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.35">
@@ -5668,10 +5668,10 @@
         <v>0</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I109" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.35">
@@ -5698,10 +5698,10 @@
         <v>0</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I110" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.35">
@@ -5728,10 +5728,10 @@
         <v>0</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I111" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.35">
@@ -5758,10 +5758,10 @@
         <v>0</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I112" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.35">
@@ -5788,7 +5788,7 @@
         <v>0</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I113" t="s">
         <v>102</v>
@@ -5818,10 +5818,10 @@
         <v>0</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I114" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.35">
@@ -5848,10 +5848,10 @@
         <v>0</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I115" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.35">
@@ -5878,10 +5878,10 @@
         <v>0</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I116" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.35">
@@ -5908,10 +5908,10 @@
         <v>0</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I117" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.35">
@@ -5938,10 +5938,10 @@
         <v>0</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I118" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.35">
@@ -5968,10 +5968,10 @@
         <v>0</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I119" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.35">
@@ -5998,10 +5998,10 @@
         <v>0</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I120" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.35">
@@ -6028,10 +6028,10 @@
         <v>0</v>
       </c>
       <c r="H121" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="I121" t="s">
         <v>215</v>
-      </c>
-      <c r="I121" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.35">
@@ -6058,10 +6058,10 @@
         <v>0</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I122" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.35">
@@ -6088,10 +6088,10 @@
         <v>0</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I123" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.35">
@@ -6118,10 +6118,10 @@
         <v>0</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I124" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.35">
@@ -6148,10 +6148,10 @@
         <v>0</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I125" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.35">
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I126" t="s">
         <v>206</v>
@@ -6208,7 +6208,7 @@
         <v>0</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I127" t="s">
         <v>207</v>
@@ -6238,7 +6238,7 @@
         <v>0</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I128" t="s">
         <v>208</v>
@@ -6268,7 +6268,7 @@
         <v>0</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I129" t="s">
         <v>42</v>
@@ -6306,7 +6306,7 @@
         <v>100</v>
       </c>
       <c r="B1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C1" t="s">
         <v>43</v>
@@ -6317,7 +6317,7 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C2" t="s">
         <v>103</v>
@@ -6989,7 +6989,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C86" t="s">
         <v>0</v>
@@ -6997,7 +6997,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C87" t="s">
         <v>1</v>
@@ -7005,7 +7005,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C88" t="s">
         <v>2</v>
@@ -7013,7 +7013,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C89" t="s">
         <v>3</v>
@@ -7021,7 +7021,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C90" t="s">
         <v>4</v>
@@ -7029,7 +7029,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -7037,7 +7037,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C92" t="s">
         <v>6</v>
@@ -7045,7 +7045,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C93" t="s">
         <v>7</v>
@@ -7053,7 +7053,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C94" t="s">
         <v>8</v>
@@ -7061,7 +7061,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C95" t="s">
         <v>9</v>
@@ -7069,7 +7069,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C96" t="s">
         <v>10</v>
@@ -7077,7 +7077,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C97" t="s">
         <v>11</v>
@@ -7085,7 +7085,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C98" t="s">
         <v>12</v>
@@ -7093,7 +7093,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C99" t="s">
         <v>13</v>
@@ -7101,7 +7101,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C100" t="s">
         <v>14</v>
@@ -7109,7 +7109,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C101" t="s">
         <v>15</v>
@@ -7117,7 +7117,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C102" t="s">
         <v>16</v>
@@ -7125,7 +7125,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C103" t="s">
         <v>17</v>
@@ -7133,7 +7133,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C104" t="s">
         <v>18</v>
@@ -7141,7 +7141,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C105" t="s">
         <v>19</v>
@@ -7149,7 +7149,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C106" t="s">
         <v>20</v>
@@ -7157,7 +7157,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C107" t="s">
         <v>21</v>
@@ -7165,7 +7165,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C108" t="s">
         <v>22</v>
@@ -7173,7 +7173,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C109" t="s">
         <v>23</v>
@@ -7181,7 +7181,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C110" t="s">
         <v>24</v>
@@ -7189,7 +7189,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C111" t="s">
         <v>25</v>
@@ -7197,7 +7197,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C112" t="s">
         <v>26</v>
@@ -7213,7 +7213,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C114" t="s">
         <v>27</v>
@@ -7221,7 +7221,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -7229,7 +7229,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C116" t="s">
         <v>29</v>
@@ -7237,7 +7237,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C117" t="s">
         <v>30</v>
@@ -7245,7 +7245,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C118" t="s">
         <v>31</v>
@@ -7253,7 +7253,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C119" t="s">
         <v>32</v>
@@ -7261,7 +7261,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C120" t="s">
         <v>33</v>
@@ -7269,7 +7269,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C121" t="s">
         <v>34</v>
@@ -7277,7 +7277,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C122" t="s">
         <v>35</v>
@@ -7285,7 +7285,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C123" t="s">
         <v>36</v>
@@ -7293,7 +7293,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C124" t="s">
         <v>37</v>
@@ -7301,7 +7301,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C125" t="s">
         <v>38</v>
@@ -7425,7 +7425,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J2" t="s">
         <v>103</v>
@@ -7458,7 +7458,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J3" t="s">
         <v>103</v>
@@ -7491,7 +7491,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J4" t="s">
         <v>101</v>
@@ -7524,7 +7524,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J5" t="s">
         <v>101</v>
@@ -7557,7 +7557,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J6" t="s">
         <v>104</v>
@@ -7590,7 +7590,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J7" t="s">
         <v>105</v>
@@ -7623,7 +7623,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J8" t="s">
         <v>106</v>
@@ -7656,7 +7656,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J9" t="s">
         <v>107</v>
@@ -7689,7 +7689,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J10" t="s">
         <v>108</v>
@@ -7722,7 +7722,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J11" t="s">
         <v>109</v>
@@ -7755,7 +7755,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J12" t="s">
         <v>110</v>
@@ -7788,7 +7788,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J13" t="s">
         <v>111</v>
@@ -7821,7 +7821,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J14" t="s">
         <v>112</v>
@@ -7854,7 +7854,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J15" t="s">
         <v>113</v>
@@ -7887,7 +7887,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J16" t="s">
         <v>114</v>
@@ -7920,7 +7920,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J17" t="s">
         <v>115</v>
@@ -7953,7 +7953,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J18" t="s">
         <v>116</v>
@@ -7986,7 +7986,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J19" t="s">
         <v>117</v>
@@ -8019,7 +8019,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J20" t="s">
         <v>118</v>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J21" t="s">
         <v>119</v>
@@ -8085,7 +8085,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J22" t="s">
         <v>120</v>
@@ -8118,7 +8118,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J23" t="s">
         <v>121</v>
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J24" t="s">
         <v>122</v>
@@ -8184,7 +8184,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J25" t="s">
         <v>123</v>
@@ -8217,7 +8217,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J26" t="s">
         <v>124</v>
@@ -8250,7 +8250,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J27" t="s">
         <v>125</v>
@@ -8283,7 +8283,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J28" t="s">
         <v>126</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J29" t="s">
         <v>127</v>
@@ -8349,7 +8349,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J30" t="s">
         <v>128</v>
@@ -8382,7 +8382,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J31" t="s">
         <v>129</v>
@@ -8415,7 +8415,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J32" t="s">
         <v>130</v>
@@ -8448,7 +8448,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J33" t="s">
         <v>131</v>
@@ -8481,7 +8481,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J34" t="s">
         <v>132</v>
@@ -8514,7 +8514,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J35" t="s">
         <v>133</v>
@@ -8547,7 +8547,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J36" t="s">
         <v>134</v>
@@ -8580,7 +8580,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J37" t="s">
         <v>135</v>
@@ -8613,7 +8613,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J38" t="s">
         <v>152</v>
@@ -8646,7 +8646,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J39" t="s">
         <v>153</v>
@@ -8679,7 +8679,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J40" t="s">
         <v>154</v>
@@ -8712,7 +8712,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J41" t="s">
         <v>155</v>
@@ -8745,7 +8745,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J42" t="s">
         <v>156</v>
@@ -8778,7 +8778,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J43" t="s">
         <v>157</v>
@@ -8811,7 +8811,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J44" t="s">
         <v>158</v>
@@ -8844,7 +8844,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J45" t="s">
         <v>159</v>
@@ -8877,7 +8877,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J46" t="s">
         <v>160</v>
@@ -8910,7 +8910,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J47" t="s">
         <v>161</v>
@@ -8943,7 +8943,7 @@
         <v>0</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J48" t="s">
         <v>162</v>
@@ -8976,7 +8976,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J49" t="s">
         <v>163</v>
@@ -9009,7 +9009,7 @@
         <v>0</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J50" t="s">
         <v>164</v>
@@ -9042,7 +9042,7 @@
         <v>0</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J51" t="s">
         <v>165</v>
@@ -9075,7 +9075,7 @@
         <v>0</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J52" t="s">
         <v>166</v>
@@ -9108,7 +9108,7 @@
         <v>0</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J53" t="s">
         <v>167</v>
@@ -9141,7 +9141,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J54" t="s">
         <v>168</v>
@@ -9174,7 +9174,7 @@
         <v>0</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J55" t="s">
         <v>169</v>
@@ -9207,7 +9207,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J56" t="s">
         <v>170</v>
@@ -9240,7 +9240,7 @@
         <v>0</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J57" t="s">
         <v>171</v>
@@ -9273,7 +9273,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J58" t="s">
         <v>172</v>
@@ -9306,7 +9306,7 @@
         <v>0</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J59" t="s">
         <v>173</v>
@@ -9339,7 +9339,7 @@
         <v>0</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J60" t="s">
         <v>174</v>
@@ -9372,7 +9372,7 @@
         <v>0</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J61" t="s">
         <v>175</v>
@@ -9405,7 +9405,7 @@
         <v>0</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J62" t="s">
         <v>176</v>
@@ -9438,7 +9438,7 @@
         <v>0</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J63" t="s">
         <v>177</v>
@@ -9471,7 +9471,7 @@
         <v>0</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J64" t="s">
         <v>178</v>
@@ -9504,7 +9504,7 @@
         <v>0</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J65" t="s">
         <v>179</v>
@@ -9537,7 +9537,7 @@
         <v>0</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J66" t="s">
         <v>180</v>
@@ -9570,7 +9570,7 @@
         <v>0</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J67" t="s">
         <v>181</v>
@@ -9603,7 +9603,7 @@
         <v>0</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J68" t="s">
         <v>182</v>
@@ -9636,7 +9636,7 @@
         <v>0</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J69" t="s">
         <v>183</v>
@@ -9669,7 +9669,7 @@
         <v>0</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J70" t="s">
         <v>184</v>
@@ -9702,7 +9702,7 @@
         <v>0</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J71" t="s">
         <v>185</v>
@@ -9735,7 +9735,7 @@
         <v>0</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J72" t="s">
         <v>186</v>
@@ -9768,7 +9768,7 @@
         <v>0</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J73" t="s">
         <v>187</v>
@@ -9801,7 +9801,7 @@
         <v>0</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J74" t="s">
         <v>188</v>
@@ -9834,7 +9834,7 @@
         <v>0</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J75" t="s">
         <v>189</v>
@@ -9867,7 +9867,7 @@
         <v>0</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J76" t="s">
         <v>190</v>
@@ -9900,7 +9900,7 @@
         <v>0</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J77" t="s">
         <v>191</v>
@@ -9933,7 +9933,7 @@
         <v>0</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J78" t="s">
         <v>192</v>
@@ -9966,7 +9966,7 @@
         <v>0</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J79" t="s">
         <v>193</v>
@@ -9999,7 +9999,7 @@
         <v>0</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J80" t="s">
         <v>194</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J81" t="s">
         <v>195</v>
@@ -10065,7 +10065,7 @@
         <v>0</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J82" t="s">
         <v>196</v>
@@ -10098,7 +10098,7 @@
         <v>0</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J83" t="s">
         <v>197</v>
@@ -10131,7 +10131,7 @@
         <v>0</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J84" t="s">
         <v>198</v>
@@ -10164,7 +10164,7 @@
         <v>0</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J85" t="s">
         <v>199</v>
@@ -10197,7 +10197,7 @@
         <v>0</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J86" t="s">
         <v>200</v>
@@ -10230,7 +10230,7 @@
         <v>0</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J87" t="s">
         <v>201</v>
@@ -10263,10 +10263,10 @@
         <v>0</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J88" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.35">
@@ -10296,10 +10296,10 @@
         <v>0</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J89" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.35">
@@ -10329,10 +10329,10 @@
         <v>0</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J90" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
@@ -10362,10 +10362,10 @@
         <v>0</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J91" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.35">
@@ -10395,10 +10395,10 @@
         <v>0</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J92" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.35">
@@ -10428,10 +10428,10 @@
         <v>0</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J93" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.35">
@@ -10461,10 +10461,10 @@
         <v>0</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J94" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.35">
@@ -10494,10 +10494,10 @@
         <v>0</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J95" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.35">
@@ -10527,10 +10527,10 @@
         <v>0</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J96" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.35">
@@ -10560,10 +10560,10 @@
         <v>0</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J97" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.35">
@@ -10593,10 +10593,10 @@
         <v>0</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J98" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.35">
@@ -10626,10 +10626,10 @@
         <v>0</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J99" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.35">
@@ -10659,10 +10659,10 @@
         <v>0</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J100" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.35">
@@ -10692,10 +10692,10 @@
         <v>0</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J101" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.35">
@@ -10725,10 +10725,10 @@
         <v>0</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J102" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.35">
@@ -10758,10 +10758,10 @@
         <v>0</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J103" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.35">
@@ -10791,10 +10791,10 @@
         <v>0</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J104" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.35">
@@ -10824,10 +10824,10 @@
         <v>0</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J105" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.35">
@@ -10857,10 +10857,10 @@
         <v>0</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J106" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.35">
@@ -10890,10 +10890,10 @@
         <v>0</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J107" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.35">
@@ -10923,10 +10923,10 @@
         <v>0</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J108" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.35">
@@ -10956,10 +10956,10 @@
         <v>0</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J109" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.35">
@@ -10989,10 +10989,10 @@
         <v>0</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J110" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.35">
@@ -11022,10 +11022,10 @@
         <v>0</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J111" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.35">
@@ -11055,10 +11055,10 @@
         <v>0</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J112" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.35">
@@ -11088,10 +11088,10 @@
         <v>0</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J113" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.35">
@@ -11121,10 +11121,10 @@
         <v>0</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J114" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.35">
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J115" t="s">
         <v>102</v>
@@ -11187,10 +11187,10 @@
         <v>0</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J116" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.35">
@@ -11220,10 +11220,10 @@
         <v>0</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J117" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.35">
@@ -11253,10 +11253,10 @@
         <v>0</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J118" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.35">
@@ -11286,10 +11286,10 @@
         <v>0</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J119" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.35">
@@ -11319,10 +11319,10 @@
         <v>0</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J120" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.35">
@@ -11352,10 +11352,10 @@
         <v>0</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J121" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.35">
@@ -11385,10 +11385,10 @@
         <v>0</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J122" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.35">
@@ -11418,10 +11418,10 @@
         <v>0</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J123" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.35">
@@ -11451,10 +11451,10 @@
         <v>0</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J124" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.35">
@@ -11484,10 +11484,10 @@
         <v>0</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J125" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.35">
@@ -11517,10 +11517,10 @@
         <v>0</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J126" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.35">
@@ -11550,10 +11550,10 @@
         <v>0</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J127" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.35">
@@ -11583,7 +11583,7 @@
         <v>0</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J128" t="s">
         <v>206</v>
@@ -11616,7 +11616,7 @@
         <v>0</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J129" t="s">
         <v>207</v>
@@ -11649,7 +11649,7 @@
         <v>0</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J130" t="s">
         <v>208</v>
@@ -11682,7 +11682,7 @@
         <v>0</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J131" t="s">
         <v>42</v>
@@ -11754,7 +11754,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G2">
         <v>27</v>
@@ -11777,7 +11777,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G3">
         <v>28</v>
@@ -11800,7 +11800,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G4">
         <v>29</v>
@@ -11823,7 +11823,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G5">
         <v>30</v>
@@ -11846,7 +11846,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G6">
         <v>31</v>
@@ -11869,7 +11869,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G7">
         <v>32</v>
@@ -11892,7 +11892,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G8">
         <v>33</v>
@@ -11915,7 +11915,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G9">
         <v>34</v>
@@ -11938,7 +11938,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G10">
         <v>35</v>
@@ -11961,7 +11961,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G11">
         <v>36</v>
@@ -11984,7 +11984,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G12">
         <v>37</v>
@@ -12007,7 +12007,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G13">
         <v>38</v>
@@ -12030,7 +12030,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G14">
         <v>39</v>
@@ -12053,7 +12053,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G15">
         <v>40</v>
@@ -12076,7 +12076,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G16">
         <v>41</v>
@@ -12099,7 +12099,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G17">
         <v>42</v>
@@ -12122,7 +12122,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G18">
         <v>43</v>
@@ -12145,7 +12145,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G19">
         <v>44</v>
@@ -12168,7 +12168,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G20">
         <v>45</v>
@@ -12191,7 +12191,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G21">
         <v>46</v>
@@ -12214,7 +12214,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G22">
         <v>47</v>
@@ -12237,7 +12237,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G23">
         <v>48</v>
@@ -12260,7 +12260,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G24">
         <v>49</v>
@@ -12283,7 +12283,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G25">
         <v>50</v>
@@ -12306,7 +12306,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G26">
         <v>51</v>
@@ -12329,7 +12329,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G27">
         <v>52</v>
@@ -12352,7 +12352,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G28">
         <v>53</v>
@@ -12375,7 +12375,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G29">
         <v>54</v>
@@ -12398,7 +12398,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G30">
         <v>55</v>
@@ -12421,7 +12421,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G31">
         <v>56</v>
@@ -12444,7 +12444,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G32">
         <v>57</v>
@@ -12467,7 +12467,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G33">
         <v>58</v>
@@ -12490,7 +12490,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G34">
         <v>59</v>
@@ -12513,7 +12513,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G35">
         <v>60</v>
@@ -12536,7 +12536,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G36">
         <v>61</v>
@@ -12559,7 +12559,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G37">
         <v>62</v>
@@ -12582,7 +12582,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G38">
         <v>63</v>
@@ -12605,7 +12605,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G39">
         <v>64</v>
@@ -12628,7 +12628,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G40">
         <v>65</v>
@@ -12651,7 +12651,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G41">
         <v>66</v>
@@ -12674,7 +12674,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G42">
         <v>67</v>
@@ -12697,7 +12697,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G43">
         <v>68</v>
@@ -12720,7 +12720,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G44">
         <v>69</v>
@@ -12743,7 +12743,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G45">
         <v>70</v>
@@ -12766,7 +12766,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G46">
         <v>71</v>
@@ -12789,7 +12789,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G47">
         <v>72</v>
@@ -12812,7 +12812,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G48">
         <v>73</v>
@@ -12835,7 +12835,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G49">
         <v>74</v>
@@ -12858,7 +12858,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G50">
         <v>75</v>
@@ -12881,7 +12881,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G51">
         <v>76</v>
@@ -12904,7 +12904,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G52">
         <v>77</v>
@@ -12927,7 +12927,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G53">
         <v>78</v>
@@ -12950,7 +12950,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G54">
         <v>79</v>
@@ -12973,7 +12973,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G55">
         <v>80</v>
@@ -12996,7 +12996,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G56">
         <v>81</v>
@@ -13019,7 +13019,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G57">
         <v>82</v>
@@ -13042,7 +13042,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G58">
         <v>83</v>
@@ -13065,7 +13065,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G59">
         <v>84</v>
@@ -13088,7 +13088,7 @@
         <v>0</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G60">
         <v>85</v>
@@ -13111,7 +13111,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G61">
         <v>86</v>
@@ -13134,7 +13134,7 @@
         <v>0</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G62">
         <v>87</v>
@@ -13157,7 +13157,7 @@
         <v>0</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G63">
         <v>88</v>
@@ -13180,7 +13180,7 @@
         <v>0</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G64">
         <v>89</v>
@@ -13203,7 +13203,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G65">
         <v>90</v>
@@ -13226,7 +13226,7 @@
         <v>0</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G66">
         <v>91</v>
@@ -13249,7 +13249,7 @@
         <v>0</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G67">
         <v>92</v>
@@ -13272,7 +13272,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G68">
         <v>93</v>
@@ -13295,7 +13295,7 @@
         <v>0</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G69">
         <v>94</v>
@@ -13318,7 +13318,7 @@
         <v>0</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G70">
         <v>95</v>
@@ -13341,7 +13341,7 @@
         <v>0</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G71">
         <v>96</v>
@@ -13364,7 +13364,7 @@
         <v>0</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G72">
         <v>97</v>
@@ -13387,7 +13387,7 @@
         <v>0</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G73">
         <v>98</v>
@@ -13410,7 +13410,7 @@
         <v>0</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G74">
         <v>99</v>
@@ -13433,7 +13433,7 @@
         <v>0</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G75">
         <v>100</v>
@@ -13456,7 +13456,7 @@
         <v>0</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G76">
         <v>101</v>
@@ -13479,7 +13479,7 @@
         <v>0</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G77">
         <v>102</v>
@@ -13502,7 +13502,7 @@
         <v>0</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G78">
         <v>103</v>
@@ -13525,7 +13525,7 @@
         <v>0</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G79">
         <v>104</v>
@@ -13548,7 +13548,7 @@
         <v>0</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G80">
         <v>105</v>
@@ -13571,7 +13571,7 @@
         <v>0</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G81">
         <v>106</v>
@@ -13594,7 +13594,7 @@
         <v>0</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G82">
         <v>107</v>
@@ -13617,7 +13617,7 @@
         <v>0</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G83">
         <v>108</v>
@@ -13640,7 +13640,7 @@
         <v>0</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G84">
         <v>109</v>
@@ -13663,7 +13663,7 @@
         <v>0</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G85">
         <v>110</v>
@@ -13686,7 +13686,7 @@
         <v>0</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G86">
         <v>111</v>
@@ -13709,7 +13709,7 @@
         <v>0</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G87">
         <v>112</v>
@@ -13732,7 +13732,7 @@
         <v>0</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G88">
         <v>113</v>
@@ -13755,7 +13755,7 @@
         <v>0</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G89">
         <v>114</v>
@@ -13778,7 +13778,7 @@
         <v>0</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G90">
         <v>115</v>
@@ -13801,7 +13801,7 @@
         <v>0</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G91">
         <v>116</v>
@@ -13824,7 +13824,7 @@
         <v>0</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G92">
         <v>117</v>
@@ -13847,7 +13847,7 @@
         <v>0</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G93">
         <v>118</v>
@@ -13870,7 +13870,7 @@
         <v>0</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G94">
         <v>119</v>
@@ -13893,7 +13893,7 @@
         <v>0</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G95">
         <v>120</v>
@@ -13916,7 +13916,7 @@
         <v>0</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G96">
         <v>121</v>
@@ -13939,7 +13939,7 @@
         <v>0</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G97">
         <v>122</v>
@@ -13962,7 +13962,7 @@
         <v>0</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G98">
         <v>123</v>
@@ -13985,7 +13985,7 @@
         <v>0</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G99">
         <v>124</v>
@@ -14008,7 +14008,7 @@
         <v>0</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G100">
         <v>125</v>
@@ -14031,7 +14031,7 @@
         <v>0</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G101">
         <v>126</v>
@@ -14054,7 +14054,7 @@
         <v>0</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G102">
         <v>127</v>
@@ -14077,7 +14077,7 @@
         <v>0</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G103">
         <v>128</v>
@@ -14100,7 +14100,7 @@
         <v>0</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G104">
         <v>129</v>
@@ -14123,7 +14123,7 @@
         <v>0</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G105">
         <v>130</v>
@@ -14146,7 +14146,7 @@
         <v>0</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G106">
         <v>131</v>
@@ -14169,7 +14169,7 @@
         <v>0</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G107">
         <v>132</v>
@@ -14192,7 +14192,7 @@
         <v>0</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G108">
         <v>133</v>
@@ -14215,7 +14215,7 @@
         <v>0</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G109">
         <v>134</v>
@@ -14238,7 +14238,7 @@
         <v>0</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G110">
         <v>135</v>
@@ -14261,7 +14261,7 @@
         <v>0</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G111">
         <v>136</v>
@@ -14284,7 +14284,7 @@
         <v>0</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G112">
         <v>137</v>
@@ -14307,7 +14307,7 @@
         <v>0</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G113">
         <v>138</v>
@@ -14330,7 +14330,7 @@
         <v>0</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G114">
         <v>139</v>
@@ -14353,7 +14353,7 @@
         <v>0</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G115">
         <v>140</v>
@@ -14376,7 +14376,7 @@
         <v>0</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G116">
         <v>141</v>
@@ -14399,7 +14399,7 @@
         <v>0</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G117">
         <v>142</v>
@@ -14422,7 +14422,7 @@
         <v>0</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G118">
         <v>143</v>
@@ -14445,7 +14445,7 @@
         <v>0</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G119">
         <v>144</v>
@@ -14468,7 +14468,7 @@
         <v>0</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G120">
         <v>145</v>
@@ -14491,7 +14491,7 @@
         <v>0</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G121">
         <v>146</v>
@@ -14514,7 +14514,7 @@
         <v>0</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G122">
         <v>147</v>
@@ -14537,7 +14537,7 @@
         <v>0</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G123">
         <v>148</v>
@@ -14560,7 +14560,7 @@
         <v>0</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G124">
         <v>149</v>
@@ -14583,7 +14583,7 @@
         <v>0</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G125">
         <v>150</v>
@@ -14606,7 +14606,7 @@
         <v>0</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G126">
         <v>151</v>
@@ -14629,7 +14629,7 @@
         <v>0</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G127">
         <v>152</v>
@@ -14652,7 +14652,7 @@
         <v>0</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G128">
         <v>153</v>
@@ -14675,7 +14675,7 @@
         <v>0</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G129">
         <v>154</v>
@@ -14698,7 +14698,7 @@
         <v>0</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G130">
         <v>155</v>
@@ -14721,7 +14721,7 @@
         <v>0</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G131">
         <v>156</v>
@@ -16476,7 +16476,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D16" sqref="D16:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16873,7 +16873,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C16" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="D16">
         <v>1432</v>
